--- a/output/firms/summary_firms.xlsx
+++ b/output/firms/summary_firms.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TTD\OneDrive - HEC Montréal\esg\output\firms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA6A166-D15D-4319-B97C-025DAE609557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FC4FE2-6FCD-44F7-B16C-A3D802D23022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0D997166-9C6B-40EA-B3D4-98F9715F97CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Percent of Firms with ESG Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Avg # of Firms with ESG Data" sheetId="3" r:id="rId2"/>
+    <sheet name="Avg # of Firms by ESG Type" sheetId="3" r:id="rId2"/>
     <sheet name="Summary Stats of ESG Data_x0009__x0009__x0009__x0009__x0009__x0009_" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
@@ -105,9 +105,6 @@
     <t>Percent of Firms</t>
   </si>
   <si>
-    <t>Average Number of Firms with ESG Data per Year</t>
-  </si>
-  <si>
     <t>Percent of Firms with ESG Data per Year</t>
   </si>
   <si>
@@ -122,6 +119,9 @@
   <si>
     <t>Undisclosed</t>
   </si>
+  <si>
+    <t>Average Number of Firms by ESG Type</t>
+  </si>
 </sst>
 </file>
 
@@ -129,7 +129,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -181,7 +181,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -208,16 +208,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -242,7 +242,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="monthly_env_pct_firms_sp"/>
+      <sheetName val="monthly_ghg_pct_firms_sp"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -251,16 +251,16 @@
             <v>2009</v>
           </cell>
           <cell r="C2">
-            <v>95.661157024793397</v>
+            <v>56.198347107438003</v>
           </cell>
           <cell r="D2">
-            <v>69.897959183673507</v>
+            <v>11.734693877551001</v>
           </cell>
           <cell r="E2">
-            <v>5.2980132450331103</v>
+            <v>0.99337748344370902</v>
           </cell>
           <cell r="F2">
-            <v>51.353226925746</v>
+            <v>21.7210270645385</v>
           </cell>
         </row>
         <row r="3">
@@ -268,16 +268,16 @@
             <v>2010</v>
           </cell>
           <cell r="C3">
-            <v>96.2264150943396</v>
+            <v>59.748427672955998</v>
           </cell>
           <cell r="D3">
-            <v>72.307692307692307</v>
+            <v>12.051282051282101</v>
           </cell>
           <cell r="E3">
-            <v>4.8252911813643902</v>
+            <v>0.49916805324459201</v>
           </cell>
           <cell r="F3">
-            <v>52.267969295184898</v>
+            <v>23.098394975575701</v>
           </cell>
         </row>
         <row r="4">
@@ -285,16 +285,16 @@
             <v>2011</v>
           </cell>
           <cell r="C4">
-            <v>95.762711864406796</v>
+            <v>63.347457627118601</v>
           </cell>
           <cell r="D4">
-            <v>74.358974358974393</v>
+            <v>14.615384615384601</v>
           </cell>
           <cell r="E4">
-            <v>3.4768211920529799</v>
+            <v>0.33112582781457001</v>
           </cell>
           <cell r="F4">
-            <v>52.030812324929997</v>
+            <v>24.719887955182099</v>
           </cell>
         </row>
         <row r="5">
@@ -302,16 +302,16 @@
             <v>2012</v>
           </cell>
           <cell r="C5">
-            <v>95.913978494623606</v>
+            <v>65.376344086021504</v>
           </cell>
           <cell r="D5">
-            <v>74.3386243386243</v>
+            <v>15.8730158730159</v>
           </cell>
           <cell r="E5">
-            <v>2.5862068965517202</v>
+            <v>0.17241379310344801</v>
           </cell>
           <cell r="F5">
-            <v>51.846590909090899</v>
+            <v>25.639204545454501</v>
           </cell>
         </row>
         <row r="6">
@@ -319,16 +319,16 @@
             <v>2013</v>
           </cell>
           <cell r="C6">
-            <v>97.167755991285404</v>
+            <v>59.041394335512003</v>
           </cell>
           <cell r="D6">
-            <v>73.740053050397904</v>
-          </cell>
-          <cell r="E6">
-            <v>3.5653650254668898</v>
+            <v>15.384615384615399</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>NA</v>
           </cell>
           <cell r="F6">
-            <v>51.833213515456499</v>
+            <v>23.005032350826699</v>
           </cell>
         </row>
         <row r="7">
@@ -336,16 +336,16 @@
             <v>2014</v>
           </cell>
           <cell r="C7">
-            <v>96.629213483146103</v>
+            <v>58.651685393258397</v>
           </cell>
           <cell r="D7">
-            <v>73.246753246753201</v>
+            <v>16.6233766233766</v>
           </cell>
           <cell r="E7">
-            <v>8.1771720613287897</v>
+            <v>0.51107325383304902</v>
           </cell>
           <cell r="F7">
-            <v>53.818181818181799</v>
+            <v>23.4181818181818</v>
           </cell>
         </row>
         <row r="8">
@@ -353,16 +353,16 @@
             <v>2015</v>
           </cell>
           <cell r="C8">
-            <v>95.291479820627799</v>
+            <v>58.295964125560502</v>
           </cell>
           <cell r="D8">
-            <v>94.0104166666667</v>
+            <v>19.53125</v>
           </cell>
           <cell r="E8">
-            <v>51.003344481605403</v>
+            <v>3.3444816053511701</v>
           </cell>
           <cell r="F8">
-            <v>76.121562952243096</v>
+            <v>25.0361794500724</v>
           </cell>
         </row>
         <row r="9">
@@ -370,16 +370,16 @@
             <v>2016</v>
           </cell>
           <cell r="C9">
-            <v>95.936794582392807</v>
+            <v>61.8510158013544</v>
           </cell>
           <cell r="D9">
-            <v>95.263157894736807</v>
+            <v>20</v>
           </cell>
           <cell r="E9">
-            <v>82.178217821782198</v>
+            <v>4.4554455445544496</v>
           </cell>
           <cell r="F9">
-            <v>89.7826086956522</v>
+            <v>26.739130434782599</v>
           </cell>
         </row>
         <row r="10">
@@ -387,16 +387,16 @@
             <v>2017</v>
           </cell>
           <cell r="C10">
-            <v>96.543778801843303</v>
+            <v>60.36866359447</v>
           </cell>
           <cell r="D10">
-            <v>93.386243386243393</v>
+            <v>19.312169312169299</v>
           </cell>
           <cell r="E10">
-            <v>87.140439932318102</v>
+            <v>5.0761421319797</v>
           </cell>
           <cell r="F10">
-            <v>91.635825314581794</v>
+            <v>26.350851221317502</v>
           </cell>
         </row>
         <row r="11">
@@ -404,16 +404,16 @@
             <v>2018</v>
           </cell>
           <cell r="C11">
-            <v>92.924528301886795</v>
+            <v>56.367924528301899</v>
           </cell>
           <cell r="D11">
-            <v>90.223463687150797</v>
+            <v>16.480446927374299</v>
           </cell>
           <cell r="E11">
-            <v>86.870503597122294</v>
+            <v>5.3956834532374103</v>
           </cell>
           <cell r="F11">
-            <v>89.708141321044494</v>
+            <v>24.654377880184299</v>
           </cell>
         </row>
       </sheetData>
@@ -426,7 +426,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="monthly_ghg_pct_firms_sp"/>
+      <sheetName val="monthly_env_pct_firms_sp"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -435,16 +435,16 @@
             <v>2009</v>
           </cell>
           <cell r="C2">
-            <v>56.198347107438003</v>
+            <v>95.66</v>
           </cell>
           <cell r="D2">
-            <v>11.734693877551001</v>
+            <v>69.900000000000006</v>
           </cell>
           <cell r="E2">
-            <v>0.99337748344370902</v>
+            <v>5.3</v>
           </cell>
           <cell r="F2">
-            <v>21.7210270645385</v>
+            <v>51.35</v>
           </cell>
         </row>
         <row r="3">
@@ -452,16 +452,16 @@
             <v>2010</v>
           </cell>
           <cell r="C3">
-            <v>59.748427672955998</v>
+            <v>96.23</v>
           </cell>
           <cell r="D3">
-            <v>12.051282051282101</v>
+            <v>72.31</v>
           </cell>
           <cell r="E3">
-            <v>0.49916805324459201</v>
+            <v>4.83</v>
           </cell>
           <cell r="F3">
-            <v>23.098394975575701</v>
+            <v>52.27</v>
           </cell>
         </row>
         <row r="4">
@@ -469,16 +469,16 @@
             <v>2011</v>
           </cell>
           <cell r="C4">
-            <v>63.347457627118601</v>
+            <v>95.76</v>
           </cell>
           <cell r="D4">
-            <v>14.615384615384601</v>
+            <v>74.36</v>
           </cell>
           <cell r="E4">
-            <v>0.33112582781457001</v>
+            <v>3.48</v>
           </cell>
           <cell r="F4">
-            <v>24.719887955182099</v>
+            <v>52.03</v>
           </cell>
         </row>
         <row r="5">
@@ -486,16 +486,16 @@
             <v>2012</v>
           </cell>
           <cell r="C5">
-            <v>65.376344086021504</v>
+            <v>95.91</v>
           </cell>
           <cell r="D5">
-            <v>15.8730158730159</v>
+            <v>74.34</v>
           </cell>
           <cell r="E5">
-            <v>0.17241379310344801</v>
+            <v>2.59</v>
           </cell>
           <cell r="F5">
-            <v>25.639204545454501</v>
+            <v>51.85</v>
           </cell>
         </row>
         <row r="6">
@@ -503,16 +503,16 @@
             <v>2013</v>
           </cell>
           <cell r="C6">
-            <v>59.041394335512003</v>
+            <v>97.17</v>
           </cell>
           <cell r="D6">
-            <v>15.384615384615399</v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>NA</v>
+            <v>73.739999999999995</v>
+          </cell>
+          <cell r="E6">
+            <v>3.57</v>
           </cell>
           <cell r="F6">
-            <v>23.005032350826699</v>
+            <v>51.83</v>
           </cell>
         </row>
         <row r="7">
@@ -520,16 +520,16 @@
             <v>2014</v>
           </cell>
           <cell r="C7">
-            <v>58.651685393258397</v>
+            <v>96.63</v>
           </cell>
           <cell r="D7">
-            <v>16.6233766233766</v>
+            <v>73.25</v>
           </cell>
           <cell r="E7">
-            <v>0.51107325383304902</v>
+            <v>8.18</v>
           </cell>
           <cell r="F7">
-            <v>23.4181818181818</v>
+            <v>53.82</v>
           </cell>
         </row>
         <row r="8">
@@ -537,16 +537,16 @@
             <v>2015</v>
           </cell>
           <cell r="C8">
-            <v>58.295964125560502</v>
+            <v>95.29</v>
           </cell>
           <cell r="D8">
-            <v>19.53125</v>
+            <v>94.01</v>
           </cell>
           <cell r="E8">
-            <v>3.3444816053511701</v>
+            <v>51</v>
           </cell>
           <cell r="F8">
-            <v>25.0361794500724</v>
+            <v>76.12</v>
           </cell>
         </row>
         <row r="9">
@@ -554,16 +554,16 @@
             <v>2016</v>
           </cell>
           <cell r="C9">
-            <v>61.8510158013544</v>
+            <v>95.94</v>
           </cell>
           <cell r="D9">
-            <v>20</v>
+            <v>95.26</v>
           </cell>
           <cell r="E9">
-            <v>4.4554455445544496</v>
+            <v>82.18</v>
           </cell>
           <cell r="F9">
-            <v>26.739130434782599</v>
+            <v>89.78</v>
           </cell>
         </row>
         <row r="10">
@@ -571,16 +571,16 @@
             <v>2017</v>
           </cell>
           <cell r="C10">
-            <v>60.36866359447</v>
+            <v>96.54</v>
           </cell>
           <cell r="D10">
-            <v>19.312169312169299</v>
+            <v>93.39</v>
           </cell>
           <cell r="E10">
-            <v>5.0761421319797</v>
+            <v>87.14</v>
           </cell>
           <cell r="F10">
-            <v>26.350851221317502</v>
+            <v>91.64</v>
           </cell>
         </row>
         <row r="11">
@@ -588,16 +588,16 @@
             <v>2018</v>
           </cell>
           <cell r="C11">
-            <v>56.367924528301899</v>
+            <v>92.92</v>
           </cell>
           <cell r="D11">
-            <v>16.480446927374299</v>
+            <v>90.22</v>
           </cell>
           <cell r="E11">
-            <v>5.3956834532374103</v>
+            <v>86.87</v>
           </cell>
           <cell r="F11">
-            <v>24.654377880184299</v>
+            <v>89.71</v>
           </cell>
         </row>
       </sheetData>
@@ -610,469 +610,178 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="monthly_summary_stats"/>
+      <sheetName val="ghg_df_monthly_avg_esg_firms"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>spmim...10.envscore_yr</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>spmim...10.ghg_yr</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>spmim...91.envscore_yr</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>spmim...91.ghg_yr</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>spmim...92.envscore_yr</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>spmim...92.ghg_yr</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>spmim...all.envscore_yr</v>
-          </cell>
-          <cell r="I1" t="str">
-            <v>spmim...all.ghg_yr</v>
-          </cell>
-        </row>
         <row r="2">
-          <cell r="A2" t="str">
-            <v>Mean</v>
-          </cell>
           <cell r="B2">
-            <v>63.2848287441156</v>
+            <v>2009</v>
           </cell>
           <cell r="C2">
-            <v>931.87630747979995</v>
+            <v>76</v>
           </cell>
           <cell r="D2">
-            <v>34.768641437381902</v>
+            <v>76</v>
           </cell>
           <cell r="E2">
-            <v>1495.4476116113799</v>
+            <v>152</v>
           </cell>
           <cell r="F2">
-            <v>22.4703268716721</v>
-          </cell>
-          <cell r="G2">
-            <v>741.99486950552</v>
-          </cell>
-          <cell r="H2">
-            <v>46.568886247680901</v>
-          </cell>
-          <cell r="I2">
-            <v>1032.5114379935501</v>
+            <v>1090</v>
           </cell>
         </row>
         <row r="3">
-          <cell r="A3" t="str">
-            <v>Std.Dev</v>
-          </cell>
           <cell r="B3">
-            <v>29.9856532847969</v>
+            <v>2010</v>
           </cell>
           <cell r="C3">
-            <v>2544.69409082312</v>
+            <v>87</v>
           </cell>
           <cell r="D3">
-            <v>27.2118097159718</v>
+            <v>87</v>
           </cell>
           <cell r="E3">
-            <v>3732.7309400583699</v>
+            <v>172</v>
           </cell>
           <cell r="F3">
-            <v>16.494949591135601</v>
-          </cell>
-          <cell r="G3">
-            <v>1553.8918776590399</v>
-          </cell>
-          <cell r="H3">
-            <v>31.975409599318098</v>
-          </cell>
-          <cell r="I3">
-            <v>2794.5257340396502</v>
+            <v>1043</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="A4" t="str">
-            <v>Min</v>
-          </cell>
           <cell r="B4">
-            <v>8.5116666666666703</v>
+            <v>2011</v>
           </cell>
           <cell r="C4">
-            <v>0</v>
+            <v>94</v>
           </cell>
           <cell r="D4">
-            <v>8.2899999999999991</v>
+            <v>94</v>
           </cell>
           <cell r="E4">
-            <v>1.20096747758599</v>
+            <v>187</v>
           </cell>
           <cell r="F4">
-            <v>8.6999999999999993</v>
-          </cell>
-          <cell r="G4">
-            <v>0</v>
-          </cell>
-          <cell r="H4">
-            <v>8.2899999999999991</v>
-          </cell>
-          <cell r="I4">
-            <v>0</v>
+            <v>1002</v>
           </cell>
         </row>
         <row r="5">
-          <cell r="A5" t="str">
-            <v>Q1</v>
-          </cell>
           <cell r="B5">
-            <v>36.327500000000001</v>
+            <v>2012</v>
           </cell>
           <cell r="C5">
-            <v>31.141099335263899</v>
+            <v>97</v>
           </cell>
           <cell r="D5">
-            <v>12.24</v>
+            <v>97</v>
           </cell>
           <cell r="E5">
-            <v>42.223739560114801</v>
+            <v>194</v>
           </cell>
           <cell r="F5">
-            <v>12.77</v>
-          </cell>
-          <cell r="G5">
-            <v>35.559288267851898</v>
-          </cell>
-          <cell r="H5">
-            <v>13.7433333333333</v>
-          </cell>
-          <cell r="I5">
-            <v>32.535091465766897</v>
+            <v>980</v>
           </cell>
         </row>
         <row r="6">
-          <cell r="A6" t="str">
-            <v>Median</v>
-          </cell>
           <cell r="B6">
-            <v>75.282499999999999</v>
+            <v>2013</v>
           </cell>
           <cell r="C6">
-            <v>79.929810499241697</v>
+            <v>97</v>
           </cell>
           <cell r="D6">
-            <v>22.797499999999999</v>
+            <v>97</v>
           </cell>
           <cell r="E6">
-            <v>139.77070097806401</v>
+            <v>192</v>
           </cell>
           <cell r="F6">
-            <v>13.797083333333299</v>
-          </cell>
-          <cell r="G6">
-            <v>72.166716692074104</v>
-          </cell>
-          <cell r="H6">
-            <v>38.142499999999998</v>
-          </cell>
-          <cell r="I6">
-            <v>87.301374143602203</v>
+            <v>968</v>
           </cell>
         </row>
         <row r="7">
-          <cell r="A7" t="str">
-            <v>Q3</v>
-          </cell>
           <cell r="B7">
-            <v>90.163333333333298</v>
+            <v>2014</v>
           </cell>
           <cell r="C7">
-            <v>390.04144591597702</v>
+            <v>97</v>
           </cell>
           <cell r="D7">
-            <v>53.0966666666667</v>
+            <v>97</v>
           </cell>
           <cell r="E7">
-            <v>582.98654473965701</v>
+            <v>192</v>
           </cell>
           <cell r="F7">
-            <v>26.065000000000001</v>
-          </cell>
-          <cell r="G7">
-            <v>546.48777400665199</v>
-          </cell>
-          <cell r="H7">
-            <v>81.084999999999994</v>
-          </cell>
-          <cell r="I7">
-            <v>453.03858530516197</v>
+            <v>951</v>
           </cell>
         </row>
         <row r="8">
-          <cell r="A8" t="str">
-            <v>Max</v>
-          </cell>
           <cell r="B8">
-            <v>95.599166666666704</v>
+            <v>2015</v>
           </cell>
           <cell r="C8">
-            <v>21247.405594709799</v>
+            <v>100</v>
           </cell>
           <cell r="D8">
-            <v>95.32</v>
+            <v>100</v>
           </cell>
           <cell r="E8">
-            <v>21247.405594709799</v>
+            <v>198</v>
           </cell>
           <cell r="F8">
-            <v>94.271666666666704</v>
-          </cell>
-          <cell r="G8">
-            <v>9471.0680975924406</v>
-          </cell>
-          <cell r="H8">
-            <v>95.599166666666704</v>
-          </cell>
-          <cell r="I8">
-            <v>21247.405594709799</v>
+            <v>926</v>
           </cell>
         </row>
         <row r="9">
-          <cell r="A9" t="str">
-            <v>MAD</v>
-          </cell>
           <cell r="B9">
-            <v>26.511358999999999</v>
+            <v>2016</v>
           </cell>
           <cell r="C9">
-            <v>93.989876859764294</v>
+            <v>99</v>
           </cell>
           <cell r="D9">
-            <v>18.1111945</v>
+            <v>99</v>
           </cell>
           <cell r="E9">
-            <v>181.85881730761199</v>
+            <v>197</v>
           </cell>
           <cell r="F9">
-            <v>3.5242637499999998</v>
-          </cell>
-          <cell r="G9">
-            <v>65.0930660070036</v>
-          </cell>
-          <cell r="H9">
-            <v>38.9367825</v>
-          </cell>
-          <cell r="I9">
-            <v>105.033897748255</v>
+            <v>922</v>
           </cell>
         </row>
         <row r="10">
-          <cell r="A10" t="str">
-            <v>IQR</v>
-          </cell>
           <cell r="B10">
-            <v>53.835833333333298</v>
+            <v>2017</v>
           </cell>
           <cell r="C10">
-            <v>358.39316663162998</v>
+            <v>100</v>
           </cell>
           <cell r="D10">
-            <v>40.848333333333301</v>
+            <v>100</v>
           </cell>
           <cell r="E10">
-            <v>538.78807850334601</v>
+            <v>198</v>
           </cell>
           <cell r="F10">
-            <v>13.2875</v>
-          </cell>
-          <cell r="G10">
-            <v>507.552221968438</v>
-          </cell>
-          <cell r="H10">
-            <v>67.34</v>
-          </cell>
-          <cell r="I10">
-            <v>420.41075997070698</v>
+            <v>904</v>
           </cell>
         </row>
         <row r="11">
-          <cell r="A11" t="str">
-            <v>CV</v>
-          </cell>
           <cell r="B11">
-            <v>0.4738205645786</v>
+            <v>2018</v>
           </cell>
           <cell r="C11">
-            <v>2.7307208804407601</v>
+            <v>101</v>
           </cell>
           <cell r="D11">
-            <v>0.78265381076163199</v>
+            <v>101</v>
           </cell>
           <cell r="E11">
-            <v>2.4960626578127201</v>
+            <v>200</v>
           </cell>
           <cell r="F11">
-            <v>0.73407697561936802</v>
-          </cell>
-          <cell r="G11">
-            <v>2.0942083854226401</v>
-          </cell>
-          <cell r="H11">
-            <v>0.68662603243835196</v>
-          </cell>
-          <cell r="I11">
-            <v>2.7065324714176402</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Skewness</v>
-          </cell>
-          <cell r="B12">
-            <v>-0.60795910836838496</v>
-          </cell>
-          <cell r="C12">
-            <v>4.15736721766591</v>
-          </cell>
-          <cell r="D12">
-            <v>0.91329601622741596</v>
-          </cell>
-          <cell r="E12">
-            <v>3.3762990516466398</v>
-          </cell>
-          <cell r="F12">
-            <v>2.1110858866943301</v>
-          </cell>
-          <cell r="G12">
-            <v>3.1056570586923899</v>
-          </cell>
-          <cell r="H12">
-            <v>0.27311246077081502</v>
-          </cell>
-          <cell r="I12">
-            <v>4.0717614413737504</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>SE.Skewness</v>
-          </cell>
-          <cell r="B13">
-            <v>3.8885691026466697E-2</v>
-          </cell>
-          <cell r="C13">
-            <v>4.9078223224969998E-2</v>
-          </cell>
-          <cell r="D13">
-            <v>4.6574649386285999E-2</v>
-          </cell>
-          <cell r="E13">
-            <v>0.103602713097247</v>
-          </cell>
-          <cell r="F13">
-            <v>6.3521440511042193E-2</v>
-          </cell>
-          <cell r="G13">
-            <v>0.25134236855137099</v>
-          </cell>
-          <cell r="H13">
-            <v>2.7463478267805399E-2</v>
-          </cell>
-          <cell r="I13">
-            <v>4.4179799406568902E-2</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Kurtosis</v>
-          </cell>
-          <cell r="B14">
-            <v>-1.1600736802881899</v>
-          </cell>
-          <cell r="C14">
-            <v>19.581556834027499</v>
-          </cell>
-          <cell r="D14">
-            <v>-0.56472169365624603</v>
-          </cell>
-          <cell r="E14">
-            <v>11.3626744834836</v>
-          </cell>
-          <cell r="F14">
-            <v>4.1742983934120401</v>
-          </cell>
-          <cell r="G14">
-            <v>11.2632953312254</v>
-          </cell>
-          <cell r="H14">
-            <v>-1.5669095192651901</v>
-          </cell>
-          <cell r="I14">
-            <v>18.417657514176899</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>N.Valid</v>
-          </cell>
-          <cell r="B15">
-            <v>3965</v>
-          </cell>
-          <cell r="C15">
-            <v>2488</v>
-          </cell>
-          <cell r="D15">
-            <v>2763</v>
-          </cell>
-          <cell r="E15">
-            <v>556</v>
-          </cell>
-          <cell r="F15">
-            <v>1484</v>
-          </cell>
-          <cell r="G15">
-            <v>92</v>
-          </cell>
-          <cell r="H15">
-            <v>7952</v>
-          </cell>
-          <cell r="I15">
-            <v>3071</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Pct.Valid</v>
-          </cell>
-          <cell r="B16">
-            <v>96.121212121212096</v>
-          </cell>
-          <cell r="C16">
-            <v>60.315151515151499</v>
-          </cell>
-          <cell r="D16">
-            <v>79.994209612044003</v>
-          </cell>
-          <cell r="E16">
-            <v>16.097278517660701</v>
-          </cell>
-          <cell r="F16">
-            <v>27.686567164179099</v>
-          </cell>
-          <cell r="G16">
-            <v>1.7164179104477599</v>
-          </cell>
-          <cell r="H16">
-            <v>63.1662562554611</v>
-          </cell>
-          <cell r="I16">
-            <v>24.394312495035301</v>
+            <v>886</v>
           </cell>
         </row>
       </sheetData>
@@ -1085,7 +794,7 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="ghg_df_monthly_avg_esg_firms"/>
+      <sheetName val="env_df_monthly_avg_esg_firms"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -1094,16 +803,16 @@
             <v>2009</v>
           </cell>
           <cell r="C2">
-            <v>76</v>
+            <v>182</v>
           </cell>
           <cell r="D2">
-            <v>76</v>
+            <v>182</v>
           </cell>
           <cell r="E2">
-            <v>152</v>
+            <v>363</v>
           </cell>
           <cell r="F2">
-            <v>1090</v>
+            <v>666</v>
           </cell>
         </row>
         <row r="3">
@@ -1111,16 +820,16 @@
             <v>2010</v>
           </cell>
           <cell r="C3">
-            <v>87</v>
+            <v>187</v>
           </cell>
           <cell r="D3">
-            <v>87</v>
+            <v>187</v>
           </cell>
           <cell r="E3">
-            <v>172</v>
+            <v>372</v>
           </cell>
           <cell r="F3">
-            <v>1043</v>
+            <v>641</v>
           </cell>
         </row>
         <row r="4">
@@ -1128,16 +837,16 @@
             <v>2011</v>
           </cell>
           <cell r="C4">
-            <v>94</v>
+            <v>186</v>
           </cell>
           <cell r="D4">
-            <v>94</v>
+            <v>186</v>
           </cell>
           <cell r="E4">
-            <v>187</v>
+            <v>370</v>
           </cell>
           <cell r="F4">
-            <v>1002</v>
+            <v>636</v>
           </cell>
         </row>
         <row r="5">
@@ -1145,16 +854,16 @@
             <v>2012</v>
           </cell>
           <cell r="C5">
-            <v>97</v>
+            <v>184</v>
           </cell>
           <cell r="D5">
-            <v>97</v>
+            <v>184</v>
           </cell>
           <cell r="E5">
-            <v>194</v>
+            <v>365</v>
           </cell>
           <cell r="F5">
-            <v>980</v>
+            <v>636</v>
           </cell>
         </row>
         <row r="6">
@@ -1162,16 +871,16 @@
             <v>2013</v>
           </cell>
           <cell r="C6">
-            <v>97</v>
+            <v>181</v>
           </cell>
           <cell r="D6">
-            <v>97</v>
+            <v>181</v>
           </cell>
           <cell r="E6">
-            <v>192</v>
+            <v>359</v>
           </cell>
           <cell r="F6">
-            <v>968</v>
+            <v>634</v>
           </cell>
         </row>
         <row r="7">
@@ -1179,16 +888,16 @@
             <v>2014</v>
           </cell>
           <cell r="C7">
-            <v>97</v>
+            <v>181</v>
           </cell>
           <cell r="D7">
-            <v>97</v>
+            <v>181</v>
           </cell>
           <cell r="E7">
-            <v>192</v>
+            <v>360</v>
           </cell>
           <cell r="F7">
-            <v>951</v>
+            <v>614</v>
           </cell>
         </row>
         <row r="8">
@@ -1196,16 +905,16 @@
             <v>2015</v>
           </cell>
           <cell r="C8">
-            <v>100</v>
+            <v>252</v>
           </cell>
           <cell r="D8">
-            <v>100</v>
+            <v>252</v>
           </cell>
           <cell r="E8">
-            <v>198</v>
+            <v>501</v>
           </cell>
           <cell r="F8">
-            <v>926</v>
+            <v>318</v>
           </cell>
         </row>
         <row r="9">
@@ -1213,16 +922,16 @@
             <v>2016</v>
           </cell>
           <cell r="C9">
-            <v>99</v>
+            <v>302</v>
           </cell>
           <cell r="D9">
-            <v>99</v>
+            <v>306</v>
           </cell>
           <cell r="E9">
-            <v>197</v>
+            <v>599</v>
           </cell>
           <cell r="F9">
-            <v>922</v>
+            <v>111</v>
           </cell>
         </row>
         <row r="10">
@@ -1230,16 +939,16 @@
             <v>2017</v>
           </cell>
           <cell r="C10">
-            <v>100</v>
+            <v>309</v>
           </cell>
           <cell r="D10">
-            <v>100</v>
+            <v>310</v>
           </cell>
           <cell r="E10">
-            <v>198</v>
+            <v>615</v>
           </cell>
           <cell r="F10">
-            <v>904</v>
+            <v>68</v>
           </cell>
         </row>
         <row r="11">
@@ -1247,16 +956,16 @@
             <v>2018</v>
           </cell>
           <cell r="C11">
-            <v>101</v>
+            <v>308</v>
           </cell>
           <cell r="D11">
-            <v>101</v>
+            <v>308</v>
           </cell>
           <cell r="E11">
-            <v>200</v>
+            <v>615</v>
           </cell>
           <cell r="F11">
-            <v>886</v>
+            <v>56</v>
           </cell>
         </row>
       </sheetData>
@@ -1269,178 +978,469 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="env_df_monthly_avg_esg_firms"/>
+      <sheetName val="monthly_summary_stats"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>spmim...10.envscore_yr</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>spmim...10.ghg_yr</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>spmim...91.envscore_yr</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>spmim...91.ghg_yr</v>
+          </cell>
+          <cell r="F1" t="str">
+            <v>spmim...92.envscore_yr</v>
+          </cell>
+          <cell r="G1" t="str">
+            <v>spmim...92.ghg_yr</v>
+          </cell>
+          <cell r="H1" t="str">
+            <v>spmim...all.envscore_yr</v>
+          </cell>
+          <cell r="I1" t="str">
+            <v>spmim...all.ghg_yr</v>
+          </cell>
+        </row>
         <row r="2">
+          <cell r="A2" t="str">
+            <v>Mean</v>
+          </cell>
           <cell r="B2">
-            <v>2009</v>
+            <v>63.2848287441156</v>
           </cell>
           <cell r="C2">
-            <v>182</v>
+            <v>931.87630747979995</v>
           </cell>
           <cell r="D2">
-            <v>182</v>
+            <v>34.768641437381902</v>
           </cell>
           <cell r="E2">
-            <v>363</v>
+            <v>1495.4476116113799</v>
           </cell>
           <cell r="F2">
-            <v>666</v>
+            <v>22.4703268716721</v>
+          </cell>
+          <cell r="G2">
+            <v>741.99486950552</v>
+          </cell>
+          <cell r="H2">
+            <v>46.568886247680901</v>
+          </cell>
+          <cell r="I2">
+            <v>1032.5114379935501</v>
           </cell>
         </row>
         <row r="3">
+          <cell r="A3" t="str">
+            <v>Std.Dev</v>
+          </cell>
           <cell r="B3">
-            <v>2010</v>
+            <v>29.9856532847969</v>
           </cell>
           <cell r="C3">
-            <v>187</v>
+            <v>2544.69409082312</v>
           </cell>
           <cell r="D3">
-            <v>187</v>
+            <v>27.2118097159718</v>
           </cell>
           <cell r="E3">
-            <v>372</v>
+            <v>3732.7309400583699</v>
           </cell>
           <cell r="F3">
-            <v>641</v>
+            <v>16.494949591135601</v>
+          </cell>
+          <cell r="G3">
+            <v>1553.8918776590399</v>
+          </cell>
+          <cell r="H3">
+            <v>31.975409599318098</v>
+          </cell>
+          <cell r="I3">
+            <v>2794.5257340396502</v>
           </cell>
         </row>
         <row r="4">
+          <cell r="A4" t="str">
+            <v>Min</v>
+          </cell>
           <cell r="B4">
-            <v>2011</v>
+            <v>8.5116666666666703</v>
           </cell>
           <cell r="C4">
-            <v>186</v>
+            <v>0</v>
           </cell>
           <cell r="D4">
-            <v>186</v>
+            <v>8.2899999999999991</v>
           </cell>
           <cell r="E4">
-            <v>370</v>
+            <v>1.20096747758599</v>
           </cell>
           <cell r="F4">
-            <v>636</v>
+            <v>8.6999999999999993</v>
+          </cell>
+          <cell r="G4">
+            <v>0</v>
+          </cell>
+          <cell r="H4">
+            <v>8.2899999999999991</v>
+          </cell>
+          <cell r="I4">
+            <v>0</v>
           </cell>
         </row>
         <row r="5">
+          <cell r="A5" t="str">
+            <v>Q1</v>
+          </cell>
           <cell r="B5">
-            <v>2012</v>
+            <v>36.327500000000001</v>
           </cell>
           <cell r="C5">
-            <v>184</v>
+            <v>31.141099335263899</v>
           </cell>
           <cell r="D5">
-            <v>184</v>
+            <v>12.24</v>
           </cell>
           <cell r="E5">
-            <v>365</v>
+            <v>42.223739560114801</v>
           </cell>
           <cell r="F5">
-            <v>636</v>
+            <v>12.77</v>
+          </cell>
+          <cell r="G5">
+            <v>35.559288267851898</v>
+          </cell>
+          <cell r="H5">
+            <v>13.7433333333333</v>
+          </cell>
+          <cell r="I5">
+            <v>32.535091465766897</v>
           </cell>
         </row>
         <row r="6">
+          <cell r="A6" t="str">
+            <v>Median</v>
+          </cell>
           <cell r="B6">
-            <v>2013</v>
+            <v>75.282499999999999</v>
           </cell>
           <cell r="C6">
-            <v>181</v>
+            <v>79.929810499241697</v>
           </cell>
           <cell r="D6">
-            <v>181</v>
+            <v>22.797499999999999</v>
           </cell>
           <cell r="E6">
-            <v>359</v>
+            <v>139.77070097806401</v>
           </cell>
           <cell r="F6">
-            <v>634</v>
+            <v>13.797083333333299</v>
+          </cell>
+          <cell r="G6">
+            <v>72.166716692074104</v>
+          </cell>
+          <cell r="H6">
+            <v>38.142499999999998</v>
+          </cell>
+          <cell r="I6">
+            <v>87.301374143602203</v>
           </cell>
         </row>
         <row r="7">
+          <cell r="A7" t="str">
+            <v>Q3</v>
+          </cell>
           <cell r="B7">
-            <v>2014</v>
+            <v>90.163333333333298</v>
           </cell>
           <cell r="C7">
-            <v>181</v>
+            <v>390.04144591597702</v>
           </cell>
           <cell r="D7">
-            <v>181</v>
+            <v>53.0966666666667</v>
           </cell>
           <cell r="E7">
-            <v>360</v>
+            <v>582.98654473965701</v>
           </cell>
           <cell r="F7">
-            <v>614</v>
+            <v>26.065000000000001</v>
+          </cell>
+          <cell r="G7">
+            <v>546.48777400665199</v>
+          </cell>
+          <cell r="H7">
+            <v>81.084999999999994</v>
+          </cell>
+          <cell r="I7">
+            <v>453.03858530516197</v>
           </cell>
         </row>
         <row r="8">
+          <cell r="A8" t="str">
+            <v>Max</v>
+          </cell>
           <cell r="B8">
-            <v>2015</v>
+            <v>95.599166666666704</v>
           </cell>
           <cell r="C8">
-            <v>252</v>
+            <v>21247.405594709799</v>
           </cell>
           <cell r="D8">
-            <v>252</v>
+            <v>95.32</v>
           </cell>
           <cell r="E8">
-            <v>501</v>
+            <v>21247.405594709799</v>
           </cell>
           <cell r="F8">
-            <v>318</v>
+            <v>94.271666666666704</v>
+          </cell>
+          <cell r="G8">
+            <v>9471.0680975924406</v>
+          </cell>
+          <cell r="H8">
+            <v>95.599166666666704</v>
+          </cell>
+          <cell r="I8">
+            <v>21247.405594709799</v>
           </cell>
         </row>
         <row r="9">
+          <cell r="A9" t="str">
+            <v>MAD</v>
+          </cell>
           <cell r="B9">
-            <v>2016</v>
+            <v>26.511358999999999</v>
           </cell>
           <cell r="C9">
-            <v>302</v>
+            <v>93.989876859764294</v>
           </cell>
           <cell r="D9">
-            <v>306</v>
+            <v>18.1111945</v>
           </cell>
           <cell r="E9">
-            <v>599</v>
+            <v>181.85881730761199</v>
           </cell>
           <cell r="F9">
-            <v>111</v>
+            <v>3.5242637499999998</v>
+          </cell>
+          <cell r="G9">
+            <v>65.0930660070036</v>
+          </cell>
+          <cell r="H9">
+            <v>38.9367825</v>
+          </cell>
+          <cell r="I9">
+            <v>105.033897748255</v>
           </cell>
         </row>
         <row r="10">
+          <cell r="A10" t="str">
+            <v>IQR</v>
+          </cell>
           <cell r="B10">
-            <v>2017</v>
+            <v>53.835833333333298</v>
           </cell>
           <cell r="C10">
-            <v>309</v>
+            <v>358.39316663162998</v>
           </cell>
           <cell r="D10">
-            <v>310</v>
+            <v>40.848333333333301</v>
           </cell>
           <cell r="E10">
-            <v>615</v>
+            <v>538.78807850334601</v>
           </cell>
           <cell r="F10">
-            <v>68</v>
+            <v>13.2875</v>
+          </cell>
+          <cell r="G10">
+            <v>507.552221968438</v>
+          </cell>
+          <cell r="H10">
+            <v>67.34</v>
+          </cell>
+          <cell r="I10">
+            <v>420.41075997070698</v>
           </cell>
         </row>
         <row r="11">
+          <cell r="A11" t="str">
+            <v>CV</v>
+          </cell>
           <cell r="B11">
-            <v>2018</v>
+            <v>0.4738205645786</v>
           </cell>
           <cell r="C11">
-            <v>308</v>
+            <v>2.7307208804407601</v>
           </cell>
           <cell r="D11">
-            <v>308</v>
+            <v>0.78265381076163199</v>
           </cell>
           <cell r="E11">
-            <v>615</v>
+            <v>2.4960626578127201</v>
           </cell>
           <cell r="F11">
-            <v>56</v>
+            <v>0.73407697561936802</v>
+          </cell>
+          <cell r="G11">
+            <v>2.0942083854226401</v>
+          </cell>
+          <cell r="H11">
+            <v>0.68662603243835196</v>
+          </cell>
+          <cell r="I11">
+            <v>2.7065324714176402</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Skewness</v>
+          </cell>
+          <cell r="B12">
+            <v>-0.60795910836838496</v>
+          </cell>
+          <cell r="C12">
+            <v>4.15736721766591</v>
+          </cell>
+          <cell r="D12">
+            <v>0.91329601622741596</v>
+          </cell>
+          <cell r="E12">
+            <v>3.3762990516466398</v>
+          </cell>
+          <cell r="F12">
+            <v>2.1110858866943301</v>
+          </cell>
+          <cell r="G12">
+            <v>3.1056570586923899</v>
+          </cell>
+          <cell r="H12">
+            <v>0.27311246077081502</v>
+          </cell>
+          <cell r="I12">
+            <v>4.0717614413737504</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>SE.Skewness</v>
+          </cell>
+          <cell r="B13">
+            <v>3.8885691026466697E-2</v>
+          </cell>
+          <cell r="C13">
+            <v>4.9078223224969998E-2</v>
+          </cell>
+          <cell r="D13">
+            <v>4.6574649386285999E-2</v>
+          </cell>
+          <cell r="E13">
+            <v>0.103602713097247</v>
+          </cell>
+          <cell r="F13">
+            <v>6.3521440511042193E-2</v>
+          </cell>
+          <cell r="G13">
+            <v>0.25134236855137099</v>
+          </cell>
+          <cell r="H13">
+            <v>2.7463478267805399E-2</v>
+          </cell>
+          <cell r="I13">
+            <v>4.4179799406568902E-2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>Kurtosis</v>
+          </cell>
+          <cell r="B14">
+            <v>-1.1600736802881899</v>
+          </cell>
+          <cell r="C14">
+            <v>19.581556834027499</v>
+          </cell>
+          <cell r="D14">
+            <v>-0.56472169365624603</v>
+          </cell>
+          <cell r="E14">
+            <v>11.3626744834836</v>
+          </cell>
+          <cell r="F14">
+            <v>4.1742983934120401</v>
+          </cell>
+          <cell r="G14">
+            <v>11.2632953312254</v>
+          </cell>
+          <cell r="H14">
+            <v>-1.5669095192651901</v>
+          </cell>
+          <cell r="I14">
+            <v>18.417657514176899</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>N.Valid</v>
+          </cell>
+          <cell r="B15">
+            <v>3965</v>
+          </cell>
+          <cell r="C15">
+            <v>2488</v>
+          </cell>
+          <cell r="D15">
+            <v>2763</v>
+          </cell>
+          <cell r="E15">
+            <v>556</v>
+          </cell>
+          <cell r="F15">
+            <v>1484</v>
+          </cell>
+          <cell r="G15">
+            <v>92</v>
+          </cell>
+          <cell r="H15">
+            <v>7952</v>
+          </cell>
+          <cell r="I15">
+            <v>3071</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>Pct.Valid</v>
+          </cell>
+          <cell r="B16">
+            <v>96.121212121212096</v>
+          </cell>
+          <cell r="C16">
+            <v>60.315151515151499</v>
+          </cell>
+          <cell r="D16">
+            <v>79.994209612044003</v>
+          </cell>
+          <cell r="E16">
+            <v>16.097278517660701</v>
+          </cell>
+          <cell r="F16">
+            <v>27.686567164179099</v>
+          </cell>
+          <cell r="G16">
+            <v>1.7164179104477599</v>
+          </cell>
+          <cell r="H16">
+            <v>63.1662562554611</v>
+          </cell>
+          <cell r="I16">
+            <v>24.394312495035301</v>
           </cell>
         </row>
       </sheetData>
@@ -1749,559 +1749,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="5" width="13" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" customWidth="1"/>
-    <col min="10" max="11" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="3" t="str">
-        <f>A4</f>
-        <v>Year</v>
-      </c>
-      <c r="H4" s="3" t="str">
-        <f>B4</f>
-        <v>S&amp;P 500
-(Large Cap)</v>
-      </c>
-      <c r="I4" s="3" t="str">
-        <f>C4</f>
-        <v>S&amp; 400
-(Mid Cap)</v>
-      </c>
-      <c r="J4" s="3" t="str">
-        <f>D4</f>
-        <v>S&amp;P 600
-(Small Cap)</v>
-      </c>
-      <c r="K4" s="3" t="str">
-        <f>E4</f>
-        <v>S&amp;P 1500
-(All Cap)</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <f>[2]monthly_ghg_pct_firms_sp!B2</f>
-        <v>2009</v>
-      </c>
-      <c r="B5" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!C2</f>
-        <v>56.198347107438003</v>
-      </c>
-      <c r="C5" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!D2</f>
-        <v>11.734693877551001</v>
-      </c>
-      <c r="D5" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!E2</f>
-        <v>0.99337748344370902</v>
-      </c>
-      <c r="E5" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!F2</f>
-        <v>21.7210270645385</v>
-      </c>
-      <c r="G5" s="1">
-        <f>[1]monthly_env_pct_firms_sp!B2</f>
-        <v>2009</v>
-      </c>
-      <c r="H5" s="5">
-        <f>[1]monthly_env_pct_firms_sp!C2</f>
-        <v>95.661157024793397</v>
-      </c>
-      <c r="I5" s="5">
-        <f>[1]monthly_env_pct_firms_sp!D2</f>
-        <v>69.897959183673507</v>
-      </c>
-      <c r="J5" s="5">
-        <f>[1]monthly_env_pct_firms_sp!E2</f>
-        <v>5.2980132450331103</v>
-      </c>
-      <c r="K5" s="5">
-        <f>[1]monthly_env_pct_firms_sp!F2</f>
-        <v>51.353226925746</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <f>[2]monthly_ghg_pct_firms_sp!B3</f>
-        <v>2010</v>
-      </c>
-      <c r="B6" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!C3</f>
-        <v>59.748427672955998</v>
-      </c>
-      <c r="C6" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!D3</f>
-        <v>12.051282051282101</v>
-      </c>
-      <c r="D6" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!E3</f>
-        <v>0.49916805324459201</v>
-      </c>
-      <c r="E6" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!F3</f>
-        <v>23.098394975575701</v>
-      </c>
-      <c r="G6" s="1">
-        <f>[1]monthly_env_pct_firms_sp!B3</f>
-        <v>2010</v>
-      </c>
-      <c r="H6" s="5">
-        <f>[1]monthly_env_pct_firms_sp!C3</f>
-        <v>96.2264150943396</v>
-      </c>
-      <c r="I6" s="5">
-        <f>[1]monthly_env_pct_firms_sp!D3</f>
-        <v>72.307692307692307</v>
-      </c>
-      <c r="J6" s="5">
-        <f>[1]monthly_env_pct_firms_sp!E3</f>
-        <v>4.8252911813643902</v>
-      </c>
-      <c r="K6" s="5">
-        <f>[1]monthly_env_pct_firms_sp!F3</f>
-        <v>52.267969295184898</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <f>[2]monthly_ghg_pct_firms_sp!B4</f>
-        <v>2011</v>
-      </c>
-      <c r="B7" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!C4</f>
-        <v>63.347457627118601</v>
-      </c>
-      <c r="C7" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!D4</f>
-        <v>14.615384615384601</v>
-      </c>
-      <c r="D7" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!E4</f>
-        <v>0.33112582781457001</v>
-      </c>
-      <c r="E7" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!F4</f>
-        <v>24.719887955182099</v>
-      </c>
-      <c r="G7" s="1">
-        <f>[1]monthly_env_pct_firms_sp!B4</f>
-        <v>2011</v>
-      </c>
-      <c r="H7" s="5">
-        <f>[1]monthly_env_pct_firms_sp!C4</f>
-        <v>95.762711864406796</v>
-      </c>
-      <c r="I7" s="5">
-        <f>[1]monthly_env_pct_firms_sp!D4</f>
-        <v>74.358974358974393</v>
-      </c>
-      <c r="J7" s="5">
-        <f>[1]monthly_env_pct_firms_sp!E4</f>
-        <v>3.4768211920529799</v>
-      </c>
-      <c r="K7" s="5">
-        <f>[1]monthly_env_pct_firms_sp!F4</f>
-        <v>52.030812324929997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <f>[2]monthly_ghg_pct_firms_sp!B5</f>
-        <v>2012</v>
-      </c>
-      <c r="B8" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!C5</f>
-        <v>65.376344086021504</v>
-      </c>
-      <c r="C8" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!D5</f>
-        <v>15.8730158730159</v>
-      </c>
-      <c r="D8" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!E5</f>
-        <v>0.17241379310344801</v>
-      </c>
-      <c r="E8" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!F5</f>
-        <v>25.639204545454501</v>
-      </c>
-      <c r="G8" s="1">
-        <f>[1]monthly_env_pct_firms_sp!B5</f>
-        <v>2012</v>
-      </c>
-      <c r="H8" s="5">
-        <f>[1]monthly_env_pct_firms_sp!C5</f>
-        <v>95.913978494623606</v>
-      </c>
-      <c r="I8" s="5">
-        <f>[1]monthly_env_pct_firms_sp!D5</f>
-        <v>74.3386243386243</v>
-      </c>
-      <c r="J8" s="5">
-        <f>[1]monthly_env_pct_firms_sp!E5</f>
-        <v>2.5862068965517202</v>
-      </c>
-      <c r="K8" s="5">
-        <f>[1]monthly_env_pct_firms_sp!F5</f>
-        <v>51.846590909090899</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <f>[2]monthly_ghg_pct_firms_sp!B6</f>
-        <v>2013</v>
-      </c>
-      <c r="B9" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!C6</f>
-        <v>59.041394335512003</v>
-      </c>
-      <c r="C9" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!D6</f>
-        <v>15.384615384615399</v>
-      </c>
-      <c r="D9" s="5" t="str">
-        <f>[2]monthly_ghg_pct_firms_sp!E6</f>
-        <v>NA</v>
-      </c>
-      <c r="E9" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!F6</f>
-        <v>23.005032350826699</v>
-      </c>
-      <c r="G9" s="1">
-        <f>[1]monthly_env_pct_firms_sp!B6</f>
-        <v>2013</v>
-      </c>
-      <c r="H9" s="5">
-        <f>[1]monthly_env_pct_firms_sp!C6</f>
-        <v>97.167755991285404</v>
-      </c>
-      <c r="I9" s="5">
-        <f>[1]monthly_env_pct_firms_sp!D6</f>
-        <v>73.740053050397904</v>
-      </c>
-      <c r="J9" s="5">
-        <f>[1]monthly_env_pct_firms_sp!E6</f>
-        <v>3.5653650254668898</v>
-      </c>
-      <c r="K9" s="5">
-        <f>[1]monthly_env_pct_firms_sp!F6</f>
-        <v>51.833213515456499</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <f>[2]monthly_ghg_pct_firms_sp!B7</f>
-        <v>2014</v>
-      </c>
-      <c r="B10" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!C7</f>
-        <v>58.651685393258397</v>
-      </c>
-      <c r="C10" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!D7</f>
-        <v>16.6233766233766</v>
-      </c>
-      <c r="D10" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!E7</f>
-        <v>0.51107325383304902</v>
-      </c>
-      <c r="E10" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!F7</f>
-        <v>23.4181818181818</v>
-      </c>
-      <c r="G10" s="1">
-        <f>[1]monthly_env_pct_firms_sp!B7</f>
-        <v>2014</v>
-      </c>
-      <c r="H10" s="5">
-        <f>[1]monthly_env_pct_firms_sp!C7</f>
-        <v>96.629213483146103</v>
-      </c>
-      <c r="I10" s="5">
-        <f>[1]monthly_env_pct_firms_sp!D7</f>
-        <v>73.246753246753201</v>
-      </c>
-      <c r="J10" s="5">
-        <f>[1]monthly_env_pct_firms_sp!E7</f>
-        <v>8.1771720613287897</v>
-      </c>
-      <c r="K10" s="5">
-        <f>[1]monthly_env_pct_firms_sp!F7</f>
-        <v>53.818181818181799</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <f>[2]monthly_ghg_pct_firms_sp!B8</f>
-        <v>2015</v>
-      </c>
-      <c r="B11" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!C8</f>
-        <v>58.295964125560502</v>
-      </c>
-      <c r="C11" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!D8</f>
-        <v>19.53125</v>
-      </c>
-      <c r="D11" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!E8</f>
-        <v>3.3444816053511701</v>
-      </c>
-      <c r="E11" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!F8</f>
-        <v>25.0361794500724</v>
-      </c>
-      <c r="G11" s="1">
-        <f>[1]monthly_env_pct_firms_sp!B8</f>
-        <v>2015</v>
-      </c>
-      <c r="H11" s="5">
-        <f>[1]monthly_env_pct_firms_sp!C8</f>
-        <v>95.291479820627799</v>
-      </c>
-      <c r="I11" s="5">
-        <f>[1]monthly_env_pct_firms_sp!D8</f>
-        <v>94.0104166666667</v>
-      </c>
-      <c r="J11" s="5">
-        <f>[1]monthly_env_pct_firms_sp!E8</f>
-        <v>51.003344481605403</v>
-      </c>
-      <c r="K11" s="5">
-        <f>[1]monthly_env_pct_firms_sp!F8</f>
-        <v>76.121562952243096</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <f>[2]monthly_ghg_pct_firms_sp!B9</f>
-        <v>2016</v>
-      </c>
-      <c r="B12" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!C9</f>
-        <v>61.8510158013544</v>
-      </c>
-      <c r="C12" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!D9</f>
-        <v>20</v>
-      </c>
-      <c r="D12" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!E9</f>
-        <v>4.4554455445544496</v>
-      </c>
-      <c r="E12" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!F9</f>
-        <v>26.739130434782599</v>
-      </c>
-      <c r="G12" s="1">
-        <f>[1]monthly_env_pct_firms_sp!B9</f>
-        <v>2016</v>
-      </c>
-      <c r="H12" s="5">
-        <f>[1]monthly_env_pct_firms_sp!C9</f>
-        <v>95.936794582392807</v>
-      </c>
-      <c r="I12" s="5">
-        <f>[1]monthly_env_pct_firms_sp!D9</f>
-        <v>95.263157894736807</v>
-      </c>
-      <c r="J12" s="5">
-        <f>[1]monthly_env_pct_firms_sp!E9</f>
-        <v>82.178217821782198</v>
-      </c>
-      <c r="K12" s="5">
-        <f>[1]monthly_env_pct_firms_sp!F9</f>
-        <v>89.7826086956522</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <f>[2]monthly_ghg_pct_firms_sp!B10</f>
-        <v>2017</v>
-      </c>
-      <c r="B13" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!C10</f>
-        <v>60.36866359447</v>
-      </c>
-      <c r="C13" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!D10</f>
-        <v>19.312169312169299</v>
-      </c>
-      <c r="D13" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!E10</f>
-        <v>5.0761421319797</v>
-      </c>
-      <c r="E13" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!F10</f>
-        <v>26.350851221317502</v>
-      </c>
-      <c r="G13" s="1">
-        <f>[1]monthly_env_pct_firms_sp!B10</f>
-        <v>2017</v>
-      </c>
-      <c r="H13" s="5">
-        <f>[1]monthly_env_pct_firms_sp!C10</f>
-        <v>96.543778801843303</v>
-      </c>
-      <c r="I13" s="5">
-        <f>[1]monthly_env_pct_firms_sp!D10</f>
-        <v>93.386243386243393</v>
-      </c>
-      <c r="J13" s="5">
-        <f>[1]monthly_env_pct_firms_sp!E10</f>
-        <v>87.140439932318102</v>
-      </c>
-      <c r="K13" s="5">
-        <f>[1]monthly_env_pct_firms_sp!F10</f>
-        <v>91.635825314581794</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="str">
-        <f>[2]monthly_ghg_pct_firms_sp!B11&amp;"*"</f>
-        <v>2018*</v>
-      </c>
-      <c r="B14" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!C11</f>
-        <v>56.367924528301899</v>
-      </c>
-      <c r="C14" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!D11</f>
-        <v>16.480446927374299</v>
-      </c>
-      <c r="D14" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!E11</f>
-        <v>5.3956834532374103</v>
-      </c>
-      <c r="E14" s="5">
-        <f>[2]monthly_ghg_pct_firms_sp!F11</f>
-        <v>24.654377880184299</v>
-      </c>
-      <c r="G14" s="1" t="str">
-        <f>[1]monthly_env_pct_firms_sp!B11&amp;"*"</f>
-        <v>2018*</v>
-      </c>
-      <c r="H14" s="5">
-        <f>[1]monthly_env_pct_firms_sp!C11</f>
-        <v>92.924528301886795</v>
-      </c>
-      <c r="I14" s="5">
-        <f>[1]monthly_env_pct_firms_sp!D11</f>
-        <v>90.223463687150797</v>
-      </c>
-      <c r="J14" s="5">
-        <f>[1]monthly_env_pct_firms_sp!E11</f>
-        <v>86.870503597122294</v>
-      </c>
-      <c r="K14" s="5">
-        <f>[1]monthly_env_pct_firms_sp!F11</f>
-        <v>89.708141321044494</v>
-      </c>
-    </row>
-    <row r="19" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-    </row>
-    <row r="25" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-    </row>
-    <row r="26" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-    </row>
-    <row r="27" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-    </row>
-    <row r="29" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-    </row>
-    <row r="30" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-    </row>
-    <row r="31" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA0F54C-F96A-45BE-AFB9-45422DA0F921}">
-  <dimension ref="A1:M31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2329,21 +1777,573 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:11" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f>A4</f>
+        <v>Year</v>
+      </c>
+      <c r="H4" s="3" t="str">
+        <f>B4</f>
+        <v>S&amp;P 500
+(Large Cap)</v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <f>C4</f>
+        <v>S&amp; 400
+(Mid Cap)</v>
+      </c>
+      <c r="J4" s="3" t="str">
+        <f>D4</f>
+        <v>S&amp;P 600
+(Small Cap)</v>
+      </c>
+      <c r="K4" s="3" t="str">
+        <f>E4</f>
+        <v>S&amp;P 1500
+(All Cap)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <f>[1]monthly_ghg_pct_firms_sp!B2</f>
+        <v>2009</v>
+      </c>
+      <c r="B5" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!C2</f>
+        <v>56.198347107438003</v>
+      </c>
+      <c r="C5" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!D2</f>
+        <v>11.734693877551001</v>
+      </c>
+      <c r="D5" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!E2</f>
+        <v>0.99337748344370902</v>
+      </c>
+      <c r="E5" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!F2</f>
+        <v>21.7210270645385</v>
+      </c>
+      <c r="G5" s="1">
+        <f>[2]monthly_env_pct_firms_sp!B2</f>
+        <v>2009</v>
+      </c>
+      <c r="H5" s="5">
+        <f>[2]monthly_env_pct_firms_sp!C2</f>
+        <v>95.66</v>
+      </c>
+      <c r="I5" s="5">
+        <f>[2]monthly_env_pct_firms_sp!D2</f>
+        <v>69.900000000000006</v>
+      </c>
+      <c r="J5" s="5">
+        <f>[2]monthly_env_pct_firms_sp!E2</f>
+        <v>5.3</v>
+      </c>
+      <c r="K5" s="5">
+        <f>[2]monthly_env_pct_firms_sp!F2</f>
+        <v>51.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <f>[1]monthly_ghg_pct_firms_sp!B3</f>
+        <v>2010</v>
+      </c>
+      <c r="B6" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!C3</f>
+        <v>59.748427672955998</v>
+      </c>
+      <c r="C6" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!D3</f>
+        <v>12.051282051282101</v>
+      </c>
+      <c r="D6" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!E3</f>
+        <v>0.49916805324459201</v>
+      </c>
+      <c r="E6" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!F3</f>
+        <v>23.098394975575701</v>
+      </c>
+      <c r="G6" s="1">
+        <f>[2]monthly_env_pct_firms_sp!B3</f>
+        <v>2010</v>
+      </c>
+      <c r="H6" s="5">
+        <f>[2]monthly_env_pct_firms_sp!C3</f>
+        <v>96.23</v>
+      </c>
+      <c r="I6" s="5">
+        <f>[2]monthly_env_pct_firms_sp!D3</f>
+        <v>72.31</v>
+      </c>
+      <c r="J6" s="5">
+        <f>[2]monthly_env_pct_firms_sp!E3</f>
+        <v>4.83</v>
+      </c>
+      <c r="K6" s="5">
+        <f>[2]monthly_env_pct_firms_sp!F3</f>
+        <v>52.27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <f>[1]monthly_ghg_pct_firms_sp!B4</f>
+        <v>2011</v>
+      </c>
+      <c r="B7" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!C4</f>
+        <v>63.347457627118601</v>
+      </c>
+      <c r="C7" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!D4</f>
+        <v>14.615384615384601</v>
+      </c>
+      <c r="D7" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!E4</f>
+        <v>0.33112582781457001</v>
+      </c>
+      <c r="E7" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!F4</f>
+        <v>24.719887955182099</v>
+      </c>
+      <c r="G7" s="1">
+        <f>[2]monthly_env_pct_firms_sp!B4</f>
+        <v>2011</v>
+      </c>
+      <c r="H7" s="5">
+        <f>[2]monthly_env_pct_firms_sp!C4</f>
+        <v>95.76</v>
+      </c>
+      <c r="I7" s="5">
+        <f>[2]monthly_env_pct_firms_sp!D4</f>
+        <v>74.36</v>
+      </c>
+      <c r="J7" s="5">
+        <f>[2]monthly_env_pct_firms_sp!E4</f>
+        <v>3.48</v>
+      </c>
+      <c r="K7" s="5">
+        <f>[2]monthly_env_pct_firms_sp!F4</f>
+        <v>52.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <f>[1]monthly_ghg_pct_firms_sp!B5</f>
+        <v>2012</v>
+      </c>
+      <c r="B8" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!C5</f>
+        <v>65.376344086021504</v>
+      </c>
+      <c r="C8" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!D5</f>
+        <v>15.8730158730159</v>
+      </c>
+      <c r="D8" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!E5</f>
+        <v>0.17241379310344801</v>
+      </c>
+      <c r="E8" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!F5</f>
+        <v>25.639204545454501</v>
+      </c>
+      <c r="G8" s="1">
+        <f>[2]monthly_env_pct_firms_sp!B5</f>
+        <v>2012</v>
+      </c>
+      <c r="H8" s="5">
+        <f>[2]monthly_env_pct_firms_sp!C5</f>
+        <v>95.91</v>
+      </c>
+      <c r="I8" s="5">
+        <f>[2]monthly_env_pct_firms_sp!D5</f>
+        <v>74.34</v>
+      </c>
+      <c r="J8" s="5">
+        <f>[2]monthly_env_pct_firms_sp!E5</f>
+        <v>2.59</v>
+      </c>
+      <c r="K8" s="5">
+        <f>[2]monthly_env_pct_firms_sp!F5</f>
+        <v>51.85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <f>[1]monthly_ghg_pct_firms_sp!B6</f>
+        <v>2013</v>
+      </c>
+      <c r="B9" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!C6</f>
+        <v>59.041394335512003</v>
+      </c>
+      <c r="C9" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!D6</f>
+        <v>15.384615384615399</v>
+      </c>
+      <c r="D9" s="5" t="str">
+        <f>[1]monthly_ghg_pct_firms_sp!E6</f>
+        <v>NA</v>
+      </c>
+      <c r="E9" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!F6</f>
+        <v>23.005032350826699</v>
+      </c>
+      <c r="G9" s="1">
+        <f>[2]monthly_env_pct_firms_sp!B6</f>
+        <v>2013</v>
+      </c>
+      <c r="H9" s="5">
+        <f>[2]monthly_env_pct_firms_sp!C6</f>
+        <v>97.17</v>
+      </c>
+      <c r="I9" s="5">
+        <f>[2]monthly_env_pct_firms_sp!D6</f>
+        <v>73.739999999999995</v>
+      </c>
+      <c r="J9" s="5">
+        <f>[2]monthly_env_pct_firms_sp!E6</f>
+        <v>3.57</v>
+      </c>
+      <c r="K9" s="5">
+        <f>[2]monthly_env_pct_firms_sp!F6</f>
+        <v>51.83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <f>[1]monthly_ghg_pct_firms_sp!B7</f>
+        <v>2014</v>
+      </c>
+      <c r="B10" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!C7</f>
+        <v>58.651685393258397</v>
+      </c>
+      <c r="C10" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!D7</f>
+        <v>16.6233766233766</v>
+      </c>
+      <c r="D10" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!E7</f>
+        <v>0.51107325383304902</v>
+      </c>
+      <c r="E10" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!F7</f>
+        <v>23.4181818181818</v>
+      </c>
+      <c r="G10" s="1">
+        <f>[2]monthly_env_pct_firms_sp!B7</f>
+        <v>2014</v>
+      </c>
+      <c r="H10" s="5">
+        <f>[2]monthly_env_pct_firms_sp!C7</f>
+        <v>96.63</v>
+      </c>
+      <c r="I10" s="5">
+        <f>[2]monthly_env_pct_firms_sp!D7</f>
+        <v>73.25</v>
+      </c>
+      <c r="J10" s="5">
+        <f>[2]monthly_env_pct_firms_sp!E7</f>
+        <v>8.18</v>
+      </c>
+      <c r="K10" s="5">
+        <f>[2]monthly_env_pct_firms_sp!F7</f>
+        <v>53.82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f>[1]monthly_ghg_pct_firms_sp!B8</f>
+        <v>2015</v>
+      </c>
+      <c r="B11" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!C8</f>
+        <v>58.295964125560502</v>
+      </c>
+      <c r="C11" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!D8</f>
+        <v>19.53125</v>
+      </c>
+      <c r="D11" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!E8</f>
+        <v>3.3444816053511701</v>
+      </c>
+      <c r="E11" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!F8</f>
+        <v>25.0361794500724</v>
+      </c>
+      <c r="G11" s="1">
+        <f>[2]monthly_env_pct_firms_sp!B8</f>
+        <v>2015</v>
+      </c>
+      <c r="H11" s="5">
+        <f>[2]monthly_env_pct_firms_sp!C8</f>
+        <v>95.29</v>
+      </c>
+      <c r="I11" s="5">
+        <f>[2]monthly_env_pct_firms_sp!D8</f>
+        <v>94.01</v>
+      </c>
+      <c r="J11" s="5">
+        <f>[2]monthly_env_pct_firms_sp!E8</f>
+        <v>51</v>
+      </c>
+      <c r="K11" s="5">
+        <f>[2]monthly_env_pct_firms_sp!F8</f>
+        <v>76.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <f>[1]monthly_ghg_pct_firms_sp!B9</f>
+        <v>2016</v>
+      </c>
+      <c r="B12" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!C9</f>
+        <v>61.8510158013544</v>
+      </c>
+      <c r="C12" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!D9</f>
+        <v>20</v>
+      </c>
+      <c r="D12" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!E9</f>
+        <v>4.4554455445544496</v>
+      </c>
+      <c r="E12" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!F9</f>
+        <v>26.739130434782599</v>
+      </c>
+      <c r="G12" s="1">
+        <f>[2]monthly_env_pct_firms_sp!B9</f>
+        <v>2016</v>
+      </c>
+      <c r="H12" s="5">
+        <f>[2]monthly_env_pct_firms_sp!C9</f>
+        <v>95.94</v>
+      </c>
+      <c r="I12" s="5">
+        <f>[2]monthly_env_pct_firms_sp!D9</f>
+        <v>95.26</v>
+      </c>
+      <c r="J12" s="5">
+        <f>[2]monthly_env_pct_firms_sp!E9</f>
+        <v>82.18</v>
+      </c>
+      <c r="K12" s="5">
+        <f>[2]monthly_env_pct_firms_sp!F9</f>
+        <v>89.78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <f>[1]monthly_ghg_pct_firms_sp!B10</f>
+        <v>2017</v>
+      </c>
+      <c r="B13" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!C10</f>
+        <v>60.36866359447</v>
+      </c>
+      <c r="C13" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!D10</f>
+        <v>19.312169312169299</v>
+      </c>
+      <c r="D13" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!E10</f>
+        <v>5.0761421319797</v>
+      </c>
+      <c r="E13" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!F10</f>
+        <v>26.350851221317502</v>
+      </c>
+      <c r="G13" s="1">
+        <f>[2]monthly_env_pct_firms_sp!B10</f>
+        <v>2017</v>
+      </c>
+      <c r="H13" s="5">
+        <f>[2]monthly_env_pct_firms_sp!C10</f>
+        <v>96.54</v>
+      </c>
+      <c r="I13" s="5">
+        <f>[2]monthly_env_pct_firms_sp!D10</f>
+        <v>93.39</v>
+      </c>
+      <c r="J13" s="5">
+        <f>[2]monthly_env_pct_firms_sp!E10</f>
+        <v>87.14</v>
+      </c>
+      <c r="K13" s="5">
+        <f>[2]monthly_env_pct_firms_sp!F10</f>
+        <v>91.64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="str">
+        <f>[1]monthly_ghg_pct_firms_sp!B11&amp;"*"</f>
+        <v>2018*</v>
+      </c>
+      <c r="B14" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!C11</f>
+        <v>56.367924528301899</v>
+      </c>
+      <c r="C14" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!D11</f>
+        <v>16.480446927374299</v>
+      </c>
+      <c r="D14" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!E11</f>
+        <v>5.3956834532374103</v>
+      </c>
+      <c r="E14" s="5">
+        <f>[1]monthly_ghg_pct_firms_sp!F11</f>
+        <v>24.654377880184299</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f>[2]monthly_env_pct_firms_sp!B11&amp;"*"</f>
+        <v>2018*</v>
+      </c>
+      <c r="H14" s="5">
+        <f>[2]monthly_env_pct_firms_sp!C11</f>
+        <v>92.92</v>
+      </c>
+      <c r="I14" s="5">
+        <f>[2]monthly_env_pct_firms_sp!D11</f>
+        <v>90.22</v>
+      </c>
+      <c r="J14" s="5">
+        <f>[2]monthly_env_pct_firms_sp!E11</f>
+        <v>86.87</v>
+      </c>
+      <c r="K14" s="5">
+        <f>[2]monthly_env_pct_firms_sp!F11</f>
+        <v>89.71</v>
+      </c>
+    </row>
+    <row r="19" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA0F54C-F96A-45BE-AFB9-45422DA0F921}">
+  <dimension ref="A1:M31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="5" width="13" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="11" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="G4" s="3" t="str">
         <f>A4</f>
@@ -2367,422 +2367,422 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!B2</f>
+      <c r="A5" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!B2</f>
         <v>2009</v>
       </c>
-      <c r="B5" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!C2</f>
+      <c r="B5" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!C2</f>
         <v>76</v>
       </c>
-      <c r="C5" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!D2</f>
+      <c r="C5" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!D2</f>
         <v>76</v>
       </c>
-      <c r="D5" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!E2</f>
+      <c r="D5" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!E2</f>
         <v>152</v>
       </c>
-      <c r="E5" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!F2</f>
+      <c r="E5" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!F2</f>
         <v>1090</v>
       </c>
       <c r="G5" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!B2</f>
+        <f>[4]env_df_monthly_avg_esg_firms!B2</f>
         <v>2009</v>
       </c>
       <c r="H5" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!C2</f>
+        <f>[4]env_df_monthly_avg_esg_firms!C2</f>
         <v>182</v>
       </c>
       <c r="I5" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!D2</f>
+        <f>[4]env_df_monthly_avg_esg_firms!D2</f>
         <v>182</v>
       </c>
       <c r="J5" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!E2</f>
+        <f>[4]env_df_monthly_avg_esg_firms!E2</f>
         <v>363</v>
       </c>
       <c r="K5" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!F2</f>
+        <f>[4]env_df_monthly_avg_esg_firms!F2</f>
         <v>666</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!B3</f>
+      <c r="A6" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!B3</f>
         <v>2010</v>
       </c>
-      <c r="B6" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!C3</f>
+      <c r="B6" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!C3</f>
         <v>87</v>
       </c>
-      <c r="C6" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!D3</f>
+      <c r="C6" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!D3</f>
         <v>87</v>
       </c>
-      <c r="D6" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!E3</f>
+      <c r="D6" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!E3</f>
         <v>172</v>
       </c>
-      <c r="E6" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!F3</f>
+      <c r="E6" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!F3</f>
         <v>1043</v>
       </c>
       <c r="G6" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!B3</f>
+        <f>[4]env_df_monthly_avg_esg_firms!B3</f>
         <v>2010</v>
       </c>
       <c r="H6" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!C3</f>
+        <f>[4]env_df_monthly_avg_esg_firms!C3</f>
         <v>187</v>
       </c>
       <c r="I6" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!D3</f>
+        <f>[4]env_df_monthly_avg_esg_firms!D3</f>
         <v>187</v>
       </c>
       <c r="J6" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!E3</f>
+        <f>[4]env_df_monthly_avg_esg_firms!E3</f>
         <v>372</v>
       </c>
       <c r="K6" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!F3</f>
+        <f>[4]env_df_monthly_avg_esg_firms!F3</f>
         <v>641</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!B4</f>
+      <c r="A7" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!B4</f>
         <v>2011</v>
       </c>
-      <c r="B7" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!C4</f>
+      <c r="B7" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!C4</f>
         <v>94</v>
       </c>
-      <c r="C7" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!D4</f>
+      <c r="C7" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!D4</f>
         <v>94</v>
       </c>
-      <c r="D7" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!E4</f>
+      <c r="D7" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!E4</f>
         <v>187</v>
       </c>
-      <c r="E7" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!F4</f>
+      <c r="E7" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!F4</f>
         <v>1002</v>
       </c>
       <c r="G7" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!B4</f>
+        <f>[4]env_df_monthly_avg_esg_firms!B4</f>
         <v>2011</v>
       </c>
       <c r="H7" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!C4</f>
+        <f>[4]env_df_monthly_avg_esg_firms!C4</f>
         <v>186</v>
       </c>
       <c r="I7" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!D4</f>
+        <f>[4]env_df_monthly_avg_esg_firms!D4</f>
         <v>186</v>
       </c>
       <c r="J7" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!E4</f>
+        <f>[4]env_df_monthly_avg_esg_firms!E4</f>
         <v>370</v>
       </c>
       <c r="K7" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!F4</f>
+        <f>[4]env_df_monthly_avg_esg_firms!F4</f>
         <v>636</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!B5</f>
+      <c r="A8" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!B5</f>
         <v>2012</v>
       </c>
-      <c r="B8" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!C5</f>
+      <c r="B8" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!C5</f>
         <v>97</v>
       </c>
-      <c r="C8" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!D5</f>
+      <c r="C8" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!D5</f>
         <v>97</v>
       </c>
-      <c r="D8" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!E5</f>
+      <c r="D8" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!E5</f>
         <v>194</v>
       </c>
-      <c r="E8" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!F5</f>
+      <c r="E8" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!F5</f>
         <v>980</v>
       </c>
       <c r="G8" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!B5</f>
+        <f>[4]env_df_monthly_avg_esg_firms!B5</f>
         <v>2012</v>
       </c>
       <c r="H8" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!C5</f>
+        <f>[4]env_df_monthly_avg_esg_firms!C5</f>
         <v>184</v>
       </c>
       <c r="I8" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!D5</f>
+        <f>[4]env_df_monthly_avg_esg_firms!D5</f>
         <v>184</v>
       </c>
       <c r="J8" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!E5</f>
+        <f>[4]env_df_monthly_avg_esg_firms!E5</f>
         <v>365</v>
       </c>
       <c r="K8" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!F5</f>
+        <f>[4]env_df_monthly_avg_esg_firms!F5</f>
         <v>636</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!B6</f>
+      <c r="A9" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!B6</f>
         <v>2013</v>
       </c>
-      <c r="B9" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!C6</f>
+      <c r="B9" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!C6</f>
         <v>97</v>
       </c>
-      <c r="C9" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!D6</f>
+      <c r="C9" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!D6</f>
         <v>97</v>
       </c>
-      <c r="D9" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!E6</f>
+      <c r="D9" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!E6</f>
         <v>192</v>
       </c>
-      <c r="E9" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!F6</f>
+      <c r="E9" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!F6</f>
         <v>968</v>
       </c>
       <c r="G9" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!B6</f>
+        <f>[4]env_df_monthly_avg_esg_firms!B6</f>
         <v>2013</v>
       </c>
       <c r="H9" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!C6</f>
+        <f>[4]env_df_monthly_avg_esg_firms!C6</f>
         <v>181</v>
       </c>
       <c r="I9" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!D6</f>
+        <f>[4]env_df_monthly_avg_esg_firms!D6</f>
         <v>181</v>
       </c>
       <c r="J9" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!E6</f>
+        <f>[4]env_df_monthly_avg_esg_firms!E6</f>
         <v>359</v>
       </c>
       <c r="K9" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!F6</f>
+        <f>[4]env_df_monthly_avg_esg_firms!F6</f>
         <v>634</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!B7</f>
+      <c r="A10" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!B7</f>
         <v>2014</v>
       </c>
-      <c r="B10" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!C7</f>
+      <c r="B10" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!C7</f>
         <v>97</v>
       </c>
-      <c r="C10" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!D7</f>
+      <c r="C10" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!D7</f>
         <v>97</v>
       </c>
-      <c r="D10" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!E7</f>
+      <c r="D10" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!E7</f>
         <v>192</v>
       </c>
-      <c r="E10" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!F7</f>
+      <c r="E10" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!F7</f>
         <v>951</v>
       </c>
       <c r="G10" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!B7</f>
+        <f>[4]env_df_monthly_avg_esg_firms!B7</f>
         <v>2014</v>
       </c>
       <c r="H10" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!C7</f>
+        <f>[4]env_df_monthly_avg_esg_firms!C7</f>
         <v>181</v>
       </c>
       <c r="I10" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!D7</f>
+        <f>[4]env_df_monthly_avg_esg_firms!D7</f>
         <v>181</v>
       </c>
       <c r="J10" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!E7</f>
+        <f>[4]env_df_monthly_avg_esg_firms!E7</f>
         <v>360</v>
       </c>
       <c r="K10" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!F7</f>
+        <f>[4]env_df_monthly_avg_esg_firms!F7</f>
         <v>614</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!B8</f>
+      <c r="A11" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!B8</f>
         <v>2015</v>
       </c>
-      <c r="B11" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!C8</f>
+      <c r="B11" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!C8</f>
         <v>100</v>
       </c>
-      <c r="C11" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!D8</f>
+      <c r="C11" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!D8</f>
         <v>100</v>
       </c>
-      <c r="D11" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!E8</f>
+      <c r="D11" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!E8</f>
         <v>198</v>
       </c>
-      <c r="E11" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!F8</f>
+      <c r="E11" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!F8</f>
         <v>926</v>
       </c>
       <c r="G11" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!B8</f>
+        <f>[4]env_df_monthly_avg_esg_firms!B8</f>
         <v>2015</v>
       </c>
       <c r="H11" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!C8</f>
+        <f>[4]env_df_monthly_avg_esg_firms!C8</f>
         <v>252</v>
       </c>
       <c r="I11" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!D8</f>
+        <f>[4]env_df_monthly_avg_esg_firms!D8</f>
         <v>252</v>
       </c>
       <c r="J11" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!E8</f>
+        <f>[4]env_df_monthly_avg_esg_firms!E8</f>
         <v>501</v>
       </c>
       <c r="K11" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!F8</f>
+        <f>[4]env_df_monthly_avg_esg_firms!F8</f>
         <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!B9</f>
+      <c r="A12" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!B9</f>
         <v>2016</v>
       </c>
-      <c r="B12" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!C9</f>
+      <c r="B12" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!C9</f>
         <v>99</v>
       </c>
-      <c r="C12" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!D9</f>
+      <c r="C12" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!D9</f>
         <v>99</v>
       </c>
-      <c r="D12" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!E9</f>
+      <c r="D12" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!E9</f>
         <v>197</v>
       </c>
-      <c r="E12" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!F9</f>
+      <c r="E12" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!F9</f>
         <v>922</v>
       </c>
       <c r="G12" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!B9</f>
+        <f>[4]env_df_monthly_avg_esg_firms!B9</f>
         <v>2016</v>
       </c>
       <c r="H12" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!C9</f>
+        <f>[4]env_df_monthly_avg_esg_firms!C9</f>
         <v>302</v>
       </c>
       <c r="I12" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!D9</f>
+        <f>[4]env_df_monthly_avg_esg_firms!D9</f>
         <v>306</v>
       </c>
       <c r="J12" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!E9</f>
+        <f>[4]env_df_monthly_avg_esg_firms!E9</f>
         <v>599</v>
       </c>
       <c r="K12" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!F9</f>
+        <f>[4]env_df_monthly_avg_esg_firms!F9</f>
         <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!B10</f>
+      <c r="A13" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!B10</f>
         <v>2017</v>
       </c>
-      <c r="B13" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!C10</f>
+      <c r="B13" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!C10</f>
         <v>100</v>
       </c>
-      <c r="C13" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!D10</f>
+      <c r="C13" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!D10</f>
         <v>100</v>
       </c>
-      <c r="D13" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!E10</f>
+      <c r="D13" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!E10</f>
         <v>198</v>
       </c>
-      <c r="E13" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!F10</f>
+      <c r="E13" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!F10</f>
         <v>904</v>
       </c>
       <c r="G13" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!B10</f>
+        <f>[4]env_df_monthly_avg_esg_firms!B10</f>
         <v>2017</v>
       </c>
       <c r="H13" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!C10</f>
+        <f>[4]env_df_monthly_avg_esg_firms!C10</f>
         <v>309</v>
       </c>
       <c r="I13" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!D10</f>
+        <f>[4]env_df_monthly_avg_esg_firms!D10</f>
         <v>310</v>
       </c>
       <c r="J13" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!E10</f>
+        <f>[4]env_df_monthly_avg_esg_firms!E10</f>
         <v>615</v>
       </c>
       <c r="K13" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!F10</f>
+        <f>[4]env_df_monthly_avg_esg_firms!F10</f>
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="str">
-        <f>[4]ghg_df_monthly_avg_esg_firms!B11&amp;"*"</f>
+      <c r="A14" s="15" t="str">
+        <f>[3]ghg_df_monthly_avg_esg_firms!B11&amp;"*"</f>
         <v>2018*</v>
       </c>
-      <c r="B14" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!C11</f>
+      <c r="B14" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!C11</f>
         <v>101</v>
       </c>
-      <c r="C14" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!D11</f>
+      <c r="C14" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!D11</f>
         <v>101</v>
       </c>
-      <c r="D14" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!E11</f>
+      <c r="D14" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!E11</f>
         <v>200</v>
       </c>
-      <c r="E14" s="16">
-        <f>[4]ghg_df_monthly_avg_esg_firms!F11</f>
+      <c r="E14" s="15">
+        <f>[3]ghg_df_monthly_avg_esg_firms!F11</f>
         <v>886</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f>[5]env_df_monthly_avg_esg_firms!B11&amp;"*"</f>
+        <f>[4]env_df_monthly_avg_esg_firms!B11&amp;"*"</f>
         <v>2018*</v>
       </c>
       <c r="H14" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!C11</f>
+        <f>[4]env_df_monthly_avg_esg_firms!C11</f>
         <v>308</v>
       </c>
       <c r="I14" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!D11</f>
+        <f>[4]env_df_monthly_avg_esg_firms!D11</f>
         <v>308</v>
       </c>
       <c r="J14" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!E11</f>
+        <f>[4]env_df_monthly_avg_esg_firms!E11</f>
         <v>615</v>
       </c>
       <c r="K14" s="1">
-        <f>[5]env_df_monthly_avg_esg_firms!F11</f>
+        <f>[4]env_df_monthly_avg_esg_firms!F11</f>
         <v>56</v>
       </c>
     </row>
@@ -2860,10 +2860,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="16"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
@@ -2914,41 +2914,41 @@
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <f>B31</f>
         <v>2488</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <f t="shared" ref="C5:E5" si="0">C31</f>
         <v>556</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <f t="shared" si="0"/>
         <v>3071</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="10" t="str">
-        <f>A5</f>
+        <f t="shared" ref="G5:G15" si="1">A5</f>
         <v>Observations</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="14">
         <f>H31</f>
         <v>3965</v>
       </c>
-      <c r="I5" s="15">
-        <f t="shared" ref="I5:K5" si="1">I31</f>
+      <c r="I5" s="14">
+        <f t="shared" ref="I5:K5" si="2">I31</f>
         <v>2763</v>
       </c>
-      <c r="J5" s="15">
-        <f t="shared" si="1"/>
+      <c r="J5" s="14">
+        <f t="shared" si="2"/>
         <v>1484</v>
       </c>
-      <c r="K5" s="15">
-        <f t="shared" si="1"/>
+      <c r="K5" s="14">
+        <f t="shared" si="2"/>
         <v>7952</v>
       </c>
     </row>
@@ -2956,41 +2956,41 @@
       <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="13">
         <f>B32</f>
         <v>60.315151515151499</v>
       </c>
-      <c r="C6" s="14">
-        <f t="shared" ref="C6:E6" si="2">C32</f>
+      <c r="C6" s="13">
+        <f t="shared" ref="C6:E6" si="3">C32</f>
         <v>16.097278517660701</v>
       </c>
-      <c r="D6" s="14">
-        <f t="shared" si="2"/>
+      <c r="D6" s="13">
+        <f t="shared" si="3"/>
         <v>1.7164179104477599</v>
       </c>
-      <c r="E6" s="14">
-        <f t="shared" si="2"/>
+      <c r="E6" s="13">
+        <f t="shared" si="3"/>
         <v>24.394312495035301</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="10" t="str">
-        <f>A6</f>
+        <f t="shared" si="1"/>
         <v>Percent of Firms</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="13">
         <f>H32</f>
         <v>96.121212121212096</v>
       </c>
-      <c r="I6" s="14">
-        <f t="shared" ref="I6:K6" si="3">I32</f>
+      <c r="I6" s="13">
+        <f t="shared" ref="I6:K6" si="4">I32</f>
         <v>79.994209612044003</v>
       </c>
-      <c r="J6" s="14">
-        <f t="shared" si="3"/>
+      <c r="J6" s="13">
+        <f t="shared" si="4"/>
         <v>27.686567164179099</v>
       </c>
-      <c r="K6" s="14">
-        <f t="shared" si="3"/>
+      <c r="K6" s="13">
+        <f t="shared" si="4"/>
         <v>63.1662562554611</v>
       </c>
     </row>
@@ -2998,41 +2998,41 @@
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <f>B18</f>
         <v>931.87630747979995</v>
       </c>
-      <c r="C7" s="14">
-        <f t="shared" ref="C7:E7" si="4">C18</f>
+      <c r="C7" s="13">
+        <f t="shared" ref="C7:E7" si="5">C18</f>
         <v>1495.4476116113799</v>
       </c>
-      <c r="D7" s="14">
-        <f t="shared" si="4"/>
+      <c r="D7" s="13">
+        <f t="shared" si="5"/>
         <v>741.99486950552</v>
       </c>
-      <c r="E7" s="14">
-        <f t="shared" si="4"/>
+      <c r="E7" s="13">
+        <f t="shared" si="5"/>
         <v>1032.5114379935501</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="10" t="str">
-        <f>A7</f>
+        <f t="shared" si="1"/>
         <v>Mean</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="13">
         <f>H18</f>
         <v>63.2848287441156</v>
       </c>
-      <c r="I7" s="14">
-        <f t="shared" ref="I7:K7" si="5">I18</f>
+      <c r="I7" s="13">
+        <f t="shared" ref="I7:K7" si="6">I18</f>
         <v>34.768641437381902</v>
       </c>
-      <c r="J7" s="14">
-        <f t="shared" si="5"/>
+      <c r="J7" s="13">
+        <f t="shared" si="6"/>
         <v>22.4703268716721</v>
       </c>
-      <c r="K7" s="14">
-        <f t="shared" si="5"/>
+      <c r="K7" s="13">
+        <f t="shared" si="6"/>
         <v>46.568886247680901</v>
       </c>
     </row>
@@ -3040,41 +3040,41 @@
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <f>B19</f>
         <v>2544.69409082312</v>
       </c>
-      <c r="C8" s="14">
-        <f t="shared" ref="C8:E8" si="6">C19</f>
+      <c r="C8" s="13">
+        <f t="shared" ref="C8:E8" si="7">C19</f>
         <v>3732.7309400583699</v>
       </c>
-      <c r="D8" s="14">
-        <f t="shared" si="6"/>
+      <c r="D8" s="13">
+        <f t="shared" si="7"/>
         <v>1553.8918776590399</v>
       </c>
-      <c r="E8" s="14">
-        <f t="shared" si="6"/>
+      <c r="E8" s="13">
+        <f t="shared" si="7"/>
         <v>2794.5257340396502</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="10" t="str">
-        <f>A8</f>
+        <f t="shared" si="1"/>
         <v>Standard Deviation</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <f>H19</f>
         <v>29.9856532847969</v>
       </c>
-      <c r="I8" s="14">
-        <f t="shared" ref="I8:K8" si="7">I19</f>
+      <c r="I8" s="13">
+        <f t="shared" ref="I8:K8" si="8">I19</f>
         <v>27.2118097159718</v>
       </c>
-      <c r="J8" s="14">
-        <f t="shared" si="7"/>
+      <c r="J8" s="13">
+        <f t="shared" si="8"/>
         <v>16.494949591135601</v>
       </c>
-      <c r="K8" s="14">
-        <f t="shared" si="7"/>
+      <c r="K8" s="13">
+        <f t="shared" si="8"/>
         <v>31.975409599318098</v>
       </c>
     </row>
@@ -3082,41 +3082,41 @@
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <f>B28</f>
         <v>4.15736721766591</v>
       </c>
-      <c r="C9" s="14">
-        <f t="shared" ref="C9:E9" si="8">C28</f>
+      <c r="C9" s="13">
+        <f t="shared" ref="C9:E9" si="9">C28</f>
         <v>3.3762990516466398</v>
       </c>
-      <c r="D9" s="14">
-        <f t="shared" si="8"/>
+      <c r="D9" s="13">
+        <f t="shared" si="9"/>
         <v>3.1056570586923899</v>
       </c>
-      <c r="E9" s="14">
-        <f t="shared" si="8"/>
+      <c r="E9" s="13">
+        <f t="shared" si="9"/>
         <v>4.0717614413737504</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="10" t="str">
-        <f>A9</f>
+        <f t="shared" si="1"/>
         <v>Skewness</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <f>H28</f>
         <v>-0.60795910836838496</v>
       </c>
-      <c r="I9" s="14">
-        <f t="shared" ref="I9:K9" si="9">I28</f>
+      <c r="I9" s="13">
+        <f t="shared" ref="I9:K9" si="10">I28</f>
         <v>0.91329601622741596</v>
       </c>
-      <c r="J9" s="14">
-        <f t="shared" si="9"/>
+      <c r="J9" s="13">
+        <f t="shared" si="10"/>
         <v>2.1110858866943301</v>
       </c>
-      <c r="K9" s="14">
-        <f t="shared" si="9"/>
+      <c r="K9" s="13">
+        <f t="shared" si="10"/>
         <v>0.27311246077081502</v>
       </c>
     </row>
@@ -3124,41 +3124,41 @@
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <f>B30</f>
         <v>19.581556834027499</v>
       </c>
-      <c r="C10" s="14">
-        <f t="shared" ref="C10:E10" si="10">C30</f>
+      <c r="C10" s="13">
+        <f t="shared" ref="C10:E10" si="11">C30</f>
         <v>11.3626744834836</v>
       </c>
-      <c r="D10" s="14">
-        <f t="shared" si="10"/>
+      <c r="D10" s="13">
+        <f t="shared" si="11"/>
         <v>11.2632953312254</v>
       </c>
-      <c r="E10" s="14">
-        <f t="shared" si="10"/>
+      <c r="E10" s="13">
+        <f t="shared" si="11"/>
         <v>18.417657514176899</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="10" t="str">
-        <f>A10</f>
+        <f t="shared" si="1"/>
         <v>Kurtosis</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <f>H30</f>
         <v>-1.1600736802881899</v>
       </c>
-      <c r="I10" s="14">
-        <f t="shared" ref="I10:K10" si="11">I30</f>
+      <c r="I10" s="13">
+        <f t="shared" ref="I10:K10" si="12">I30</f>
         <v>-0.56472169365624603</v>
       </c>
-      <c r="J10" s="14">
-        <f t="shared" si="11"/>
+      <c r="J10" s="13">
+        <f t="shared" si="12"/>
         <v>4.1742983934120401</v>
       </c>
-      <c r="K10" s="14">
-        <f t="shared" si="11"/>
+      <c r="K10" s="13">
+        <f t="shared" si="12"/>
         <v>-1.5669095192651901</v>
       </c>
     </row>
@@ -3166,41 +3166,41 @@
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="13">
         <f>B20</f>
         <v>0</v>
       </c>
-      <c r="C11" s="14">
-        <f t="shared" ref="C11:E11" si="12">C20</f>
+      <c r="C11" s="13">
+        <f t="shared" ref="C11:E11" si="13">C20</f>
         <v>1.20096747758599</v>
       </c>
-      <c r="D11" s="14">
-        <f t="shared" si="12"/>
+      <c r="D11" s="13">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="E11" s="14">
-        <f t="shared" si="12"/>
+      <c r="E11" s="13">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="10" t="str">
-        <f>A11</f>
+        <f t="shared" si="1"/>
         <v>Min</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <f>H20</f>
         <v>8.5116666666666703</v>
       </c>
-      <c r="I11" s="14">
-        <f t="shared" ref="I11:K11" si="13">I20</f>
+      <c r="I11" s="13">
+        <f t="shared" ref="I11:K11" si="14">I20</f>
         <v>8.2899999999999991</v>
       </c>
-      <c r="J11" s="14">
-        <f t="shared" si="13"/>
+      <c r="J11" s="13">
+        <f t="shared" si="14"/>
         <v>8.6999999999999993</v>
       </c>
-      <c r="K11" s="14">
-        <f t="shared" si="13"/>
+      <c r="K11" s="13">
+        <f t="shared" si="14"/>
         <v>8.2899999999999991</v>
       </c>
     </row>
@@ -3208,41 +3208,41 @@
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="13">
         <f>B21</f>
         <v>31.141099335263899</v>
       </c>
-      <c r="C12" s="14">
-        <f t="shared" ref="C12:E12" si="14">C21</f>
+      <c r="C12" s="13">
+        <f t="shared" ref="C12:E12" si="15">C21</f>
         <v>42.223739560114801</v>
       </c>
-      <c r="D12" s="14">
-        <f t="shared" si="14"/>
+      <c r="D12" s="13">
+        <f t="shared" si="15"/>
         <v>35.559288267851898</v>
       </c>
-      <c r="E12" s="14">
-        <f t="shared" si="14"/>
+      <c r="E12" s="13">
+        <f t="shared" si="15"/>
         <v>32.535091465766897</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="10" t="str">
-        <f>A12</f>
+        <f t="shared" si="1"/>
         <v>25th Percentile</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <f>H21</f>
         <v>36.327500000000001</v>
       </c>
-      <c r="I12" s="14">
-        <f t="shared" ref="I12:K12" si="15">I21</f>
+      <c r="I12" s="13">
+        <f t="shared" ref="I12:K12" si="16">I21</f>
         <v>12.24</v>
       </c>
-      <c r="J12" s="14">
-        <f t="shared" si="15"/>
+      <c r="J12" s="13">
+        <f t="shared" si="16"/>
         <v>12.77</v>
       </c>
-      <c r="K12" s="14">
-        <f t="shared" si="15"/>
+      <c r="K12" s="13">
+        <f t="shared" si="16"/>
         <v>13.7433333333333</v>
       </c>
     </row>
@@ -3250,41 +3250,41 @@
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <f>B22</f>
         <v>79.929810499241697</v>
       </c>
-      <c r="C13" s="14">
-        <f t="shared" ref="C13:E13" si="16">C22</f>
+      <c r="C13" s="13">
+        <f t="shared" ref="C13:E13" si="17">C22</f>
         <v>139.77070097806401</v>
       </c>
-      <c r="D13" s="14">
-        <f t="shared" si="16"/>
+      <c r="D13" s="13">
+        <f t="shared" si="17"/>
         <v>72.166716692074104</v>
       </c>
-      <c r="E13" s="14">
-        <f t="shared" si="16"/>
+      <c r="E13" s="13">
+        <f t="shared" si="17"/>
         <v>87.301374143602203</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="10" t="str">
-        <f>A13</f>
+        <f t="shared" si="1"/>
         <v>50th Percentile</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <f>H22</f>
         <v>75.282499999999999</v>
       </c>
-      <c r="I13" s="14">
-        <f t="shared" ref="I13:K13" si="17">I22</f>
+      <c r="I13" s="13">
+        <f t="shared" ref="I13:K13" si="18">I22</f>
         <v>22.797499999999999</v>
       </c>
-      <c r="J13" s="14">
-        <f t="shared" si="17"/>
+      <c r="J13" s="13">
+        <f t="shared" si="18"/>
         <v>13.797083333333299</v>
       </c>
-      <c r="K13" s="14">
-        <f t="shared" si="17"/>
+      <c r="K13" s="13">
+        <f t="shared" si="18"/>
         <v>38.142499999999998</v>
       </c>
     </row>
@@ -3292,41 +3292,41 @@
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="13">
         <f>B23</f>
         <v>390.04144591597702</v>
       </c>
-      <c r="C14" s="14">
-        <f t="shared" ref="C14:E14" si="18">C23</f>
+      <c r="C14" s="13">
+        <f t="shared" ref="C14:E14" si="19">C23</f>
         <v>582.98654473965701</v>
       </c>
-      <c r="D14" s="14">
-        <f t="shared" si="18"/>
+      <c r="D14" s="13">
+        <f t="shared" si="19"/>
         <v>546.48777400665199</v>
       </c>
-      <c r="E14" s="14">
-        <f t="shared" si="18"/>
+      <c r="E14" s="13">
+        <f t="shared" si="19"/>
         <v>453.03858530516197</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="10" t="str">
-        <f>A14</f>
+        <f t="shared" si="1"/>
         <v>75th Percentile</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="13">
         <f>H23</f>
         <v>90.163333333333298</v>
       </c>
-      <c r="I14" s="14">
-        <f t="shared" ref="I14:K14" si="19">I23</f>
+      <c r="I14" s="13">
+        <f t="shared" ref="I14:K14" si="20">I23</f>
         <v>53.0966666666667</v>
       </c>
-      <c r="J14" s="14">
-        <f t="shared" si="19"/>
+      <c r="J14" s="13">
+        <f t="shared" si="20"/>
         <v>26.065000000000001</v>
       </c>
-      <c r="K14" s="14">
-        <f t="shared" si="19"/>
+      <c r="K14" s="13">
+        <f t="shared" si="20"/>
         <v>81.084999999999994</v>
       </c>
     </row>
@@ -3334,41 +3334,41 @@
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <f>B24</f>
         <v>21247.405594709799</v>
       </c>
-      <c r="C15" s="14">
-        <f t="shared" ref="C15:E15" si="20">C24</f>
+      <c r="C15" s="13">
+        <f t="shared" ref="C15:E15" si="21">C24</f>
         <v>21247.405594709799</v>
       </c>
-      <c r="D15" s="14">
-        <f t="shared" si="20"/>
+      <c r="D15" s="13">
+        <f t="shared" si="21"/>
         <v>9471.0680975924406</v>
       </c>
-      <c r="E15" s="14">
-        <f t="shared" si="20"/>
+      <c r="E15" s="13">
+        <f t="shared" si="21"/>
         <v>21247.405594709799</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="10" t="str">
-        <f>A15</f>
+        <f t="shared" si="1"/>
         <v>Max</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="13">
         <f>H24</f>
         <v>95.599166666666704</v>
       </c>
-      <c r="I15" s="14">
-        <f t="shared" ref="I15:K15" si="21">I24</f>
+      <c r="I15" s="13">
+        <f t="shared" ref="I15:K15" si="22">I24</f>
         <v>95.32</v>
       </c>
-      <c r="J15" s="14">
-        <f t="shared" si="21"/>
+      <c r="J15" s="13">
+        <f t="shared" si="22"/>
         <v>94.271666666666704</v>
       </c>
-      <c r="K15" s="14">
-        <f t="shared" si="21"/>
+      <c r="K15" s="13">
+        <f t="shared" si="22"/>
         <v>95.599166666666704</v>
       </c>
     </row>
@@ -3388,666 +3388,666 @@
     <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="str">
-        <f>[3]monthly_summary_stats!C1</f>
+        <f>[5]monthly_summary_stats!C1</f>
         <v>spmim...10.ghg_yr</v>
       </c>
       <c r="C17" s="3" t="str">
-        <f>[3]monthly_summary_stats!E1</f>
+        <f>[5]monthly_summary_stats!E1</f>
         <v>spmim...91.ghg_yr</v>
       </c>
       <c r="D17" s="3" t="str">
-        <f>[3]monthly_summary_stats!G1</f>
+        <f>[5]monthly_summary_stats!G1</f>
         <v>spmim...92.ghg_yr</v>
       </c>
       <c r="E17" s="3" t="str">
-        <f>[3]monthly_summary_stats!I1</f>
+        <f>[5]monthly_summary_stats!I1</f>
         <v>spmim...all.ghg_yr</v>
       </c>
       <c r="H17" s="3" t="str">
-        <f>[3]monthly_summary_stats!B1</f>
+        <f>[5]monthly_summary_stats!B1</f>
         <v>spmim...10.envscore_yr</v>
       </c>
       <c r="I17" s="3" t="str">
-        <f>[3]monthly_summary_stats!D1</f>
+        <f>[5]monthly_summary_stats!D1</f>
         <v>spmim...91.envscore_yr</v>
       </c>
       <c r="J17" s="3" t="str">
-        <f>[3]monthly_summary_stats!F1</f>
+        <f>[5]monthly_summary_stats!F1</f>
         <v>spmim...92.envscore_yr</v>
       </c>
       <c r="K17" s="3" t="str">
-        <f>[3]monthly_summary_stats!H1</f>
+        <f>[5]monthly_summary_stats!H1</f>
         <v>spmim...all.envscore_yr</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="str">
-        <f>[3]monthly_summary_stats!A2</f>
+        <f>[5]monthly_summary_stats!A2</f>
         <v>Mean</v>
       </c>
       <c r="B18" s="2">
-        <f>[3]monthly_summary_stats!C2</f>
+        <f>[5]monthly_summary_stats!C2</f>
         <v>931.87630747979995</v>
       </c>
       <c r="C18" s="2">
-        <f>[3]monthly_summary_stats!E2</f>
+        <f>[5]monthly_summary_stats!E2</f>
         <v>1495.4476116113799</v>
       </c>
       <c r="D18" s="2">
-        <f>[3]monthly_summary_stats!G2</f>
+        <f>[5]monthly_summary_stats!G2</f>
         <v>741.99486950552</v>
       </c>
       <c r="E18" s="2">
-        <f>[3]monthly_summary_stats!I2</f>
+        <f>[5]monthly_summary_stats!I2</f>
         <v>1032.5114379935501</v>
       </c>
       <c r="G18" s="9" t="str">
-        <f>A18</f>
+        <f t="shared" ref="G18:G32" si="23">A18</f>
         <v>Mean</v>
       </c>
       <c r="H18" s="2">
-        <f>[3]monthly_summary_stats!B2</f>
+        <f>[5]monthly_summary_stats!B2</f>
         <v>63.2848287441156</v>
       </c>
       <c r="I18" s="2">
-        <f>[3]monthly_summary_stats!D2</f>
+        <f>[5]monthly_summary_stats!D2</f>
         <v>34.768641437381902</v>
       </c>
       <c r="J18" s="2">
-        <f>[3]monthly_summary_stats!F2</f>
+        <f>[5]monthly_summary_stats!F2</f>
         <v>22.4703268716721</v>
       </c>
       <c r="K18" s="2">
-        <f>[3]monthly_summary_stats!H2</f>
+        <f>[5]monthly_summary_stats!H2</f>
         <v>46.568886247680901</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="str">
-        <f>[3]monthly_summary_stats!A3</f>
+        <f>[5]monthly_summary_stats!A3</f>
         <v>Std.Dev</v>
       </c>
       <c r="B19" s="2">
-        <f>[3]monthly_summary_stats!C3</f>
+        <f>[5]monthly_summary_stats!C3</f>
         <v>2544.69409082312</v>
       </c>
       <c r="C19" s="2">
-        <f>[3]monthly_summary_stats!E3</f>
+        <f>[5]monthly_summary_stats!E3</f>
         <v>3732.7309400583699</v>
       </c>
       <c r="D19" s="2">
-        <f>[3]monthly_summary_stats!G3</f>
+        <f>[5]monthly_summary_stats!G3</f>
         <v>1553.8918776590399</v>
       </c>
       <c r="E19" s="2">
-        <f>[3]monthly_summary_stats!I3</f>
+        <f>[5]monthly_summary_stats!I3</f>
         <v>2794.5257340396502</v>
       </c>
       <c r="G19" s="9" t="str">
-        <f>A19</f>
+        <f t="shared" si="23"/>
         <v>Std.Dev</v>
       </c>
       <c r="H19" s="2">
-        <f>[3]monthly_summary_stats!B3</f>
+        <f>[5]monthly_summary_stats!B3</f>
         <v>29.9856532847969</v>
       </c>
       <c r="I19" s="2">
-        <f>[3]monthly_summary_stats!D3</f>
+        <f>[5]monthly_summary_stats!D3</f>
         <v>27.2118097159718</v>
       </c>
       <c r="J19" s="2">
-        <f>[3]monthly_summary_stats!F3</f>
+        <f>[5]monthly_summary_stats!F3</f>
         <v>16.494949591135601</v>
       </c>
       <c r="K19" s="2">
-        <f>[3]monthly_summary_stats!H3</f>
+        <f>[5]monthly_summary_stats!H3</f>
         <v>31.975409599318098</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="str">
-        <f>[3]monthly_summary_stats!A4</f>
+        <f>[5]monthly_summary_stats!A4</f>
         <v>Min</v>
       </c>
       <c r="B20" s="2">
-        <f>[3]monthly_summary_stats!C4</f>
+        <f>[5]monthly_summary_stats!C4</f>
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <f>[3]monthly_summary_stats!E4</f>
+        <f>[5]monthly_summary_stats!E4</f>
         <v>1.20096747758599</v>
       </c>
       <c r="D20" s="2">
-        <f>[3]monthly_summary_stats!G4</f>
+        <f>[5]monthly_summary_stats!G4</f>
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <f>[3]monthly_summary_stats!I4</f>
+        <f>[5]monthly_summary_stats!I4</f>
         <v>0</v>
       </c>
       <c r="G20" s="9" t="str">
-        <f>A20</f>
+        <f t="shared" si="23"/>
         <v>Min</v>
       </c>
       <c r="H20" s="2">
-        <f>[3]monthly_summary_stats!B4</f>
+        <f>[5]monthly_summary_stats!B4</f>
         <v>8.5116666666666703</v>
       </c>
       <c r="I20" s="2">
-        <f>[3]monthly_summary_stats!D4</f>
+        <f>[5]monthly_summary_stats!D4</f>
         <v>8.2899999999999991</v>
       </c>
       <c r="J20" s="2">
-        <f>[3]monthly_summary_stats!F4</f>
+        <f>[5]monthly_summary_stats!F4</f>
         <v>8.6999999999999993</v>
       </c>
       <c r="K20" s="2">
-        <f>[3]monthly_summary_stats!H4</f>
+        <f>[5]monthly_summary_stats!H4</f>
         <v>8.2899999999999991</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="str">
-        <f>[3]monthly_summary_stats!A5</f>
+        <f>[5]monthly_summary_stats!A5</f>
         <v>Q1</v>
       </c>
       <c r="B21" s="2">
-        <f>[3]monthly_summary_stats!C5</f>
+        <f>[5]monthly_summary_stats!C5</f>
         <v>31.141099335263899</v>
       </c>
       <c r="C21" s="2">
-        <f>[3]monthly_summary_stats!E5</f>
+        <f>[5]monthly_summary_stats!E5</f>
         <v>42.223739560114801</v>
       </c>
       <c r="D21" s="2">
-        <f>[3]monthly_summary_stats!G5</f>
+        <f>[5]monthly_summary_stats!G5</f>
         <v>35.559288267851898</v>
       </c>
       <c r="E21" s="2">
-        <f>[3]monthly_summary_stats!I5</f>
+        <f>[5]monthly_summary_stats!I5</f>
         <v>32.535091465766897</v>
       </c>
       <c r="G21" s="9" t="str">
-        <f>A21</f>
+        <f t="shared" si="23"/>
         <v>Q1</v>
       </c>
       <c r="H21" s="2">
-        <f>[3]monthly_summary_stats!B5</f>
+        <f>[5]monthly_summary_stats!B5</f>
         <v>36.327500000000001</v>
       </c>
       <c r="I21" s="2">
-        <f>[3]monthly_summary_stats!D5</f>
+        <f>[5]monthly_summary_stats!D5</f>
         <v>12.24</v>
       </c>
       <c r="J21" s="2">
-        <f>[3]monthly_summary_stats!F5</f>
+        <f>[5]monthly_summary_stats!F5</f>
         <v>12.77</v>
       </c>
       <c r="K21" s="2">
-        <f>[3]monthly_summary_stats!H5</f>
+        <f>[5]monthly_summary_stats!H5</f>
         <v>13.7433333333333</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="str">
-        <f>[3]monthly_summary_stats!A6</f>
+        <f>[5]monthly_summary_stats!A6</f>
         <v>Median</v>
       </c>
       <c r="B22" s="2">
-        <f>[3]monthly_summary_stats!C6</f>
+        <f>[5]monthly_summary_stats!C6</f>
         <v>79.929810499241697</v>
       </c>
       <c r="C22" s="2">
-        <f>[3]monthly_summary_stats!E6</f>
+        <f>[5]monthly_summary_stats!E6</f>
         <v>139.77070097806401</v>
       </c>
       <c r="D22" s="2">
-        <f>[3]monthly_summary_stats!G6</f>
+        <f>[5]monthly_summary_stats!G6</f>
         <v>72.166716692074104</v>
       </c>
       <c r="E22" s="2">
-        <f>[3]monthly_summary_stats!I6</f>
+        <f>[5]monthly_summary_stats!I6</f>
         <v>87.301374143602203</v>
       </c>
       <c r="G22" s="9" t="str">
-        <f>A22</f>
+        <f t="shared" si="23"/>
         <v>Median</v>
       </c>
       <c r="H22" s="2">
-        <f>[3]monthly_summary_stats!B6</f>
+        <f>[5]monthly_summary_stats!B6</f>
         <v>75.282499999999999</v>
       </c>
       <c r="I22" s="2">
-        <f>[3]monthly_summary_stats!D6</f>
+        <f>[5]monthly_summary_stats!D6</f>
         <v>22.797499999999999</v>
       </c>
       <c r="J22" s="2">
-        <f>[3]monthly_summary_stats!F6</f>
+        <f>[5]monthly_summary_stats!F6</f>
         <v>13.797083333333299</v>
       </c>
       <c r="K22" s="2">
-        <f>[3]monthly_summary_stats!H6</f>
+        <f>[5]monthly_summary_stats!H6</f>
         <v>38.142499999999998</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="str">
-        <f>[3]monthly_summary_stats!A7</f>
+        <f>[5]monthly_summary_stats!A7</f>
         <v>Q3</v>
       </c>
       <c r="B23" s="2">
-        <f>[3]monthly_summary_stats!C7</f>
+        <f>[5]monthly_summary_stats!C7</f>
         <v>390.04144591597702</v>
       </c>
       <c r="C23" s="2">
-        <f>[3]monthly_summary_stats!E7</f>
+        <f>[5]monthly_summary_stats!E7</f>
         <v>582.98654473965701</v>
       </c>
       <c r="D23" s="2">
-        <f>[3]monthly_summary_stats!G7</f>
+        <f>[5]monthly_summary_stats!G7</f>
         <v>546.48777400665199</v>
       </c>
       <c r="E23" s="2">
-        <f>[3]monthly_summary_stats!I7</f>
+        <f>[5]monthly_summary_stats!I7</f>
         <v>453.03858530516197</v>
       </c>
       <c r="G23" s="9" t="str">
-        <f>A23</f>
+        <f t="shared" si="23"/>
         <v>Q3</v>
       </c>
       <c r="H23" s="2">
-        <f>[3]monthly_summary_stats!B7</f>
+        <f>[5]monthly_summary_stats!B7</f>
         <v>90.163333333333298</v>
       </c>
       <c r="I23" s="2">
-        <f>[3]monthly_summary_stats!D7</f>
+        <f>[5]monthly_summary_stats!D7</f>
         <v>53.0966666666667</v>
       </c>
       <c r="J23" s="2">
-        <f>[3]monthly_summary_stats!F7</f>
+        <f>[5]monthly_summary_stats!F7</f>
         <v>26.065000000000001</v>
       </c>
       <c r="K23" s="2">
-        <f>[3]monthly_summary_stats!H7</f>
+        <f>[5]monthly_summary_stats!H7</f>
         <v>81.084999999999994</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="str">
-        <f>[3]monthly_summary_stats!A8</f>
+        <f>[5]monthly_summary_stats!A8</f>
         <v>Max</v>
       </c>
       <c r="B24" s="2">
-        <f>[3]monthly_summary_stats!C8</f>
+        <f>[5]monthly_summary_stats!C8</f>
         <v>21247.405594709799</v>
       </c>
       <c r="C24" s="2">
-        <f>[3]monthly_summary_stats!E8</f>
+        <f>[5]monthly_summary_stats!E8</f>
         <v>21247.405594709799</v>
       </c>
       <c r="D24" s="2">
-        <f>[3]monthly_summary_stats!G8</f>
+        <f>[5]monthly_summary_stats!G8</f>
         <v>9471.0680975924406</v>
       </c>
       <c r="E24" s="2">
-        <f>[3]monthly_summary_stats!I8</f>
+        <f>[5]monthly_summary_stats!I8</f>
         <v>21247.405594709799</v>
       </c>
       <c r="G24" s="9" t="str">
-        <f>A24</f>
+        <f t="shared" si="23"/>
         <v>Max</v>
       </c>
       <c r="H24" s="2">
-        <f>[3]monthly_summary_stats!B8</f>
+        <f>[5]monthly_summary_stats!B8</f>
         <v>95.599166666666704</v>
       </c>
       <c r="I24" s="2">
-        <f>[3]monthly_summary_stats!D8</f>
+        <f>[5]monthly_summary_stats!D8</f>
         <v>95.32</v>
       </c>
       <c r="J24" s="2">
-        <f>[3]monthly_summary_stats!F8</f>
+        <f>[5]monthly_summary_stats!F8</f>
         <v>94.271666666666704</v>
       </c>
       <c r="K24" s="2">
-        <f>[3]monthly_summary_stats!H8</f>
+        <f>[5]monthly_summary_stats!H8</f>
         <v>95.599166666666704</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="str">
-        <f>[3]monthly_summary_stats!A9</f>
+        <f>[5]monthly_summary_stats!A9</f>
         <v>MAD</v>
       </c>
       <c r="B25" s="2">
-        <f>[3]monthly_summary_stats!C9</f>
+        <f>[5]monthly_summary_stats!C9</f>
         <v>93.989876859764294</v>
       </c>
       <c r="C25" s="2">
-        <f>[3]monthly_summary_stats!E9</f>
+        <f>[5]monthly_summary_stats!E9</f>
         <v>181.85881730761199</v>
       </c>
       <c r="D25" s="2">
-        <f>[3]monthly_summary_stats!G9</f>
+        <f>[5]monthly_summary_stats!G9</f>
         <v>65.0930660070036</v>
       </c>
       <c r="E25" s="2">
-        <f>[3]monthly_summary_stats!I9</f>
+        <f>[5]monthly_summary_stats!I9</f>
         <v>105.033897748255</v>
       </c>
       <c r="G25" s="9" t="str">
-        <f>A25</f>
+        <f t="shared" si="23"/>
         <v>MAD</v>
       </c>
       <c r="H25" s="2">
-        <f>[3]monthly_summary_stats!B9</f>
+        <f>[5]monthly_summary_stats!B9</f>
         <v>26.511358999999999</v>
       </c>
       <c r="I25" s="2">
-        <f>[3]monthly_summary_stats!D9</f>
+        <f>[5]monthly_summary_stats!D9</f>
         <v>18.1111945</v>
       </c>
       <c r="J25" s="2">
-        <f>[3]monthly_summary_stats!F9</f>
+        <f>[5]monthly_summary_stats!F9</f>
         <v>3.5242637499999998</v>
       </c>
       <c r="K25" s="2">
-        <f>[3]monthly_summary_stats!H9</f>
+        <f>[5]monthly_summary_stats!H9</f>
         <v>38.9367825</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="str">
-        <f>[3]monthly_summary_stats!A10</f>
+        <f>[5]monthly_summary_stats!A10</f>
         <v>IQR</v>
       </c>
       <c r="B26" s="2">
-        <f>[3]monthly_summary_stats!C10</f>
+        <f>[5]monthly_summary_stats!C10</f>
         <v>358.39316663162998</v>
       </c>
       <c r="C26" s="2">
-        <f>[3]monthly_summary_stats!E10</f>
+        <f>[5]monthly_summary_stats!E10</f>
         <v>538.78807850334601</v>
       </c>
       <c r="D26" s="2">
-        <f>[3]monthly_summary_stats!G10</f>
+        <f>[5]monthly_summary_stats!G10</f>
         <v>507.552221968438</v>
       </c>
       <c r="E26" s="2">
-        <f>[3]monthly_summary_stats!I10</f>
+        <f>[5]monthly_summary_stats!I10</f>
         <v>420.41075997070698</v>
       </c>
       <c r="G26" s="9" t="str">
-        <f>A26</f>
+        <f t="shared" si="23"/>
         <v>IQR</v>
       </c>
       <c r="H26" s="2">
-        <f>[3]monthly_summary_stats!B10</f>
+        <f>[5]monthly_summary_stats!B10</f>
         <v>53.835833333333298</v>
       </c>
       <c r="I26" s="2">
-        <f>[3]monthly_summary_stats!D10</f>
+        <f>[5]monthly_summary_stats!D10</f>
         <v>40.848333333333301</v>
       </c>
       <c r="J26" s="2">
-        <f>[3]monthly_summary_stats!F10</f>
+        <f>[5]monthly_summary_stats!F10</f>
         <v>13.2875</v>
       </c>
       <c r="K26" s="2">
-        <f>[3]monthly_summary_stats!H10</f>
+        <f>[5]monthly_summary_stats!H10</f>
         <v>67.34</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="str">
-        <f>[3]monthly_summary_stats!A11</f>
+        <f>[5]monthly_summary_stats!A11</f>
         <v>CV</v>
       </c>
       <c r="B27" s="2">
-        <f>[3]monthly_summary_stats!C11</f>
+        <f>[5]monthly_summary_stats!C11</f>
         <v>2.7307208804407601</v>
       </c>
       <c r="C27" s="2">
-        <f>[3]monthly_summary_stats!E11</f>
+        <f>[5]monthly_summary_stats!E11</f>
         <v>2.4960626578127201</v>
       </c>
       <c r="D27" s="2">
-        <f>[3]monthly_summary_stats!G11</f>
+        <f>[5]monthly_summary_stats!G11</f>
         <v>2.0942083854226401</v>
       </c>
       <c r="E27" s="2">
-        <f>[3]monthly_summary_stats!I11</f>
+        <f>[5]monthly_summary_stats!I11</f>
         <v>2.7065324714176402</v>
       </c>
       <c r="G27" s="9" t="str">
-        <f>A27</f>
+        <f t="shared" si="23"/>
         <v>CV</v>
       </c>
       <c r="H27" s="2">
-        <f>[3]monthly_summary_stats!B11</f>
+        <f>[5]monthly_summary_stats!B11</f>
         <v>0.4738205645786</v>
       </c>
       <c r="I27" s="2">
-        <f>[3]monthly_summary_stats!D11</f>
+        <f>[5]monthly_summary_stats!D11</f>
         <v>0.78265381076163199</v>
       </c>
       <c r="J27" s="2">
-        <f>[3]monthly_summary_stats!F11</f>
+        <f>[5]monthly_summary_stats!F11</f>
         <v>0.73407697561936802</v>
       </c>
       <c r="K27" s="2">
-        <f>[3]monthly_summary_stats!H11</f>
+        <f>[5]monthly_summary_stats!H11</f>
         <v>0.68662603243835196</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="str">
-        <f>[3]monthly_summary_stats!A12</f>
+        <f>[5]monthly_summary_stats!A12</f>
         <v>Skewness</v>
       </c>
       <c r="B28" s="2">
-        <f>[3]monthly_summary_stats!C12</f>
+        <f>[5]monthly_summary_stats!C12</f>
         <v>4.15736721766591</v>
       </c>
       <c r="C28" s="2">
-        <f>[3]monthly_summary_stats!E12</f>
+        <f>[5]monthly_summary_stats!E12</f>
         <v>3.3762990516466398</v>
       </c>
       <c r="D28" s="2">
-        <f>[3]monthly_summary_stats!G12</f>
+        <f>[5]monthly_summary_stats!G12</f>
         <v>3.1056570586923899</v>
       </c>
       <c r="E28" s="2">
-        <f>[3]monthly_summary_stats!I12</f>
+        <f>[5]monthly_summary_stats!I12</f>
         <v>4.0717614413737504</v>
       </c>
       <c r="G28" s="9" t="str">
-        <f>A28</f>
+        <f t="shared" si="23"/>
         <v>Skewness</v>
       </c>
       <c r="H28" s="2">
-        <f>[3]monthly_summary_stats!B12</f>
+        <f>[5]monthly_summary_stats!B12</f>
         <v>-0.60795910836838496</v>
       </c>
       <c r="I28" s="2">
-        <f>[3]monthly_summary_stats!D12</f>
+        <f>[5]monthly_summary_stats!D12</f>
         <v>0.91329601622741596</v>
       </c>
       <c r="J28" s="2">
-        <f>[3]monthly_summary_stats!F12</f>
+        <f>[5]monthly_summary_stats!F12</f>
         <v>2.1110858866943301</v>
       </c>
       <c r="K28" s="2">
-        <f>[3]monthly_summary_stats!H12</f>
+        <f>[5]monthly_summary_stats!H12</f>
         <v>0.27311246077081502</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="str">
-        <f>[3]monthly_summary_stats!A13</f>
+        <f>[5]monthly_summary_stats!A13</f>
         <v>SE.Skewness</v>
       </c>
       <c r="B29" s="2">
-        <f>[3]monthly_summary_stats!C13</f>
+        <f>[5]monthly_summary_stats!C13</f>
         <v>4.9078223224969998E-2</v>
       </c>
       <c r="C29" s="2">
-        <f>[3]monthly_summary_stats!E13</f>
+        <f>[5]monthly_summary_stats!E13</f>
         <v>0.103602713097247</v>
       </c>
       <c r="D29" s="2">
-        <f>[3]monthly_summary_stats!G13</f>
+        <f>[5]monthly_summary_stats!G13</f>
         <v>0.25134236855137099</v>
       </c>
       <c r="E29" s="2">
-        <f>[3]monthly_summary_stats!I13</f>
+        <f>[5]monthly_summary_stats!I13</f>
         <v>4.4179799406568902E-2</v>
       </c>
       <c r="G29" s="9" t="str">
-        <f>A29</f>
+        <f t="shared" si="23"/>
         <v>SE.Skewness</v>
       </c>
       <c r="H29" s="2">
-        <f>[3]monthly_summary_stats!B13</f>
+        <f>[5]monthly_summary_stats!B13</f>
         <v>3.8885691026466697E-2</v>
       </c>
       <c r="I29" s="2">
-        <f>[3]monthly_summary_stats!D13</f>
+        <f>[5]monthly_summary_stats!D13</f>
         <v>4.6574649386285999E-2</v>
       </c>
       <c r="J29" s="2">
-        <f>[3]monthly_summary_stats!F13</f>
+        <f>[5]monthly_summary_stats!F13</f>
         <v>6.3521440511042193E-2</v>
       </c>
       <c r="K29" s="2">
-        <f>[3]monthly_summary_stats!H13</f>
+        <f>[5]monthly_summary_stats!H13</f>
         <v>2.7463478267805399E-2</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="str">
-        <f>[3]monthly_summary_stats!A14</f>
+        <f>[5]monthly_summary_stats!A14</f>
         <v>Kurtosis</v>
       </c>
       <c r="B30" s="2">
-        <f>[3]monthly_summary_stats!C14</f>
+        <f>[5]monthly_summary_stats!C14</f>
         <v>19.581556834027499</v>
       </c>
       <c r="C30" s="2">
-        <f>[3]monthly_summary_stats!E14</f>
+        <f>[5]monthly_summary_stats!E14</f>
         <v>11.3626744834836</v>
       </c>
       <c r="D30" s="2">
-        <f>[3]monthly_summary_stats!G14</f>
+        <f>[5]monthly_summary_stats!G14</f>
         <v>11.2632953312254</v>
       </c>
       <c r="E30" s="2">
-        <f>[3]monthly_summary_stats!I14</f>
+        <f>[5]monthly_summary_stats!I14</f>
         <v>18.417657514176899</v>
       </c>
       <c r="G30" s="9" t="str">
-        <f>A30</f>
+        <f t="shared" si="23"/>
         <v>Kurtosis</v>
       </c>
       <c r="H30" s="2">
-        <f>[3]monthly_summary_stats!B14</f>
+        <f>[5]monthly_summary_stats!B14</f>
         <v>-1.1600736802881899</v>
       </c>
       <c r="I30" s="2">
-        <f>[3]monthly_summary_stats!D14</f>
+        <f>[5]monthly_summary_stats!D14</f>
         <v>-0.56472169365624603</v>
       </c>
       <c r="J30" s="2">
-        <f>[3]monthly_summary_stats!F14</f>
+        <f>[5]monthly_summary_stats!F14</f>
         <v>4.1742983934120401</v>
       </c>
       <c r="K30" s="2">
-        <f>[3]monthly_summary_stats!H14</f>
+        <f>[5]monthly_summary_stats!H14</f>
         <v>-1.5669095192651901</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="str">
-        <f>[3]monthly_summary_stats!A15</f>
+        <f>[5]monthly_summary_stats!A15</f>
         <v>N.Valid</v>
       </c>
       <c r="B31" s="7">
-        <f>[3]monthly_summary_stats!C15</f>
+        <f>[5]monthly_summary_stats!C15</f>
         <v>2488</v>
       </c>
       <c r="C31" s="7">
-        <f>[3]monthly_summary_stats!E15</f>
+        <f>[5]monthly_summary_stats!E15</f>
         <v>556</v>
       </c>
       <c r="D31" s="7">
-        <f>[3]monthly_summary_stats!G15</f>
+        <f>[5]monthly_summary_stats!G15</f>
         <v>92</v>
       </c>
       <c r="E31" s="7">
-        <f>[3]monthly_summary_stats!I15</f>
+        <f>[5]monthly_summary_stats!I15</f>
         <v>3071</v>
       </c>
       <c r="F31" s="8"/>
       <c r="G31" s="11" t="str">
-        <f>A31</f>
+        <f t="shared" si="23"/>
         <v>N.Valid</v>
       </c>
       <c r="H31" s="7">
-        <f>[3]monthly_summary_stats!B15</f>
+        <f>[5]monthly_summary_stats!B15</f>
         <v>3965</v>
       </c>
       <c r="I31" s="7">
-        <f>[3]monthly_summary_stats!D15</f>
+        <f>[5]monthly_summary_stats!D15</f>
         <v>2763</v>
       </c>
       <c r="J31" s="7">
-        <f>[3]monthly_summary_stats!F15</f>
+        <f>[5]monthly_summary_stats!F15</f>
         <v>1484</v>
       </c>
       <c r="K31" s="7">
-        <f>[3]monthly_summary_stats!H15</f>
+        <f>[5]monthly_summary_stats!H15</f>
         <v>7952</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="str">
-        <f>[3]monthly_summary_stats!A16</f>
+        <f>[5]monthly_summary_stats!A16</f>
         <v>Pct.Valid</v>
       </c>
       <c r="B32" s="2">
-        <f>[3]monthly_summary_stats!C16</f>
+        <f>[5]monthly_summary_stats!C16</f>
         <v>60.315151515151499</v>
       </c>
       <c r="C32" s="2">
-        <f>[3]monthly_summary_stats!E16</f>
+        <f>[5]monthly_summary_stats!E16</f>
         <v>16.097278517660701</v>
       </c>
       <c r="D32" s="2">
-        <f>[3]monthly_summary_stats!G16</f>
+        <f>[5]monthly_summary_stats!G16</f>
         <v>1.7164179104477599</v>
       </c>
       <c r="E32" s="2">
-        <f>[3]monthly_summary_stats!I16</f>
+        <f>[5]monthly_summary_stats!I16</f>
         <v>24.394312495035301</v>
       </c>
       <c r="G32" s="9" t="str">
-        <f>A32</f>
+        <f t="shared" si="23"/>
         <v>Pct.Valid</v>
       </c>
       <c r="H32" s="2">
-        <f>[3]monthly_summary_stats!B16</f>
+        <f>[5]monthly_summary_stats!B16</f>
         <v>96.121212121212096</v>
       </c>
       <c r="I32" s="2">
-        <f>[3]monthly_summary_stats!D16</f>
+        <f>[5]monthly_summary_stats!D16</f>
         <v>79.994209612044003</v>
       </c>
       <c r="J32" s="2">
-        <f>[3]monthly_summary_stats!F16</f>
+        <f>[5]monthly_summary_stats!F16</f>
         <v>27.686567164179099</v>
       </c>
       <c r="K32" s="2">
-        <f>[3]monthly_summary_stats!H16</f>
+        <f>[5]monthly_summary_stats!H16</f>
         <v>63.1662562554611</v>
       </c>
     </row>

--- a/output/firms/summary_firms.xlsx
+++ b/output/firms/summary_firms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TTD\OneDrive - HEC Montréal\esg\output\firms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FC4FE2-6FCD-44F7-B16C-A3D802D23022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732F8111-656A-47DD-8CAD-B4FB213E0ABA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0D997166-9C6B-40EA-B3D4-98F9715F97CB}"/>
   </bookViews>
@@ -190,9 +190,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -218,6 +215,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1749,7 +1749,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H5" sqref="H5:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1765,7 +1765,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1823,19 +1823,19 @@
         <f>[1]monthly_ghg_pct_firms_sp!B2</f>
         <v>2009</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!C2</f>
         <v>56.198347107438003</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!D2</f>
         <v>11.734693877551001</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!E2</f>
         <v>0.99337748344370902</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!F2</f>
         <v>21.7210270645385</v>
       </c>
@@ -1843,19 +1843,19 @@
         <f>[2]monthly_env_pct_firms_sp!B2</f>
         <v>2009</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="16">
         <f>[2]monthly_env_pct_firms_sp!C2</f>
         <v>95.66</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="16">
         <f>[2]monthly_env_pct_firms_sp!D2</f>
         <v>69.900000000000006</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="16">
         <f>[2]monthly_env_pct_firms_sp!E2</f>
         <v>5.3</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="16">
         <f>[2]monthly_env_pct_firms_sp!F2</f>
         <v>51.35</v>
       </c>
@@ -1865,19 +1865,19 @@
         <f>[1]monthly_ghg_pct_firms_sp!B3</f>
         <v>2010</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!C3</f>
         <v>59.748427672955998</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!D3</f>
         <v>12.051282051282101</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!E3</f>
         <v>0.49916805324459201</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!F3</f>
         <v>23.098394975575701</v>
       </c>
@@ -1885,19 +1885,19 @@
         <f>[2]monthly_env_pct_firms_sp!B3</f>
         <v>2010</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="16">
         <f>[2]monthly_env_pct_firms_sp!C3</f>
         <v>96.23</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="16">
         <f>[2]monthly_env_pct_firms_sp!D3</f>
         <v>72.31</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="16">
         <f>[2]monthly_env_pct_firms_sp!E3</f>
         <v>4.83</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="16">
         <f>[2]monthly_env_pct_firms_sp!F3</f>
         <v>52.27</v>
       </c>
@@ -1907,19 +1907,19 @@
         <f>[1]monthly_ghg_pct_firms_sp!B4</f>
         <v>2011</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!C4</f>
         <v>63.347457627118601</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!D4</f>
         <v>14.615384615384601</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!E4</f>
         <v>0.33112582781457001</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!F4</f>
         <v>24.719887955182099</v>
       </c>
@@ -1927,19 +1927,19 @@
         <f>[2]monthly_env_pct_firms_sp!B4</f>
         <v>2011</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="16">
         <f>[2]monthly_env_pct_firms_sp!C4</f>
         <v>95.76</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="16">
         <f>[2]monthly_env_pct_firms_sp!D4</f>
         <v>74.36</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="16">
         <f>[2]monthly_env_pct_firms_sp!E4</f>
         <v>3.48</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="16">
         <f>[2]monthly_env_pct_firms_sp!F4</f>
         <v>52.03</v>
       </c>
@@ -1949,19 +1949,19 @@
         <f>[1]monthly_ghg_pct_firms_sp!B5</f>
         <v>2012</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!C5</f>
         <v>65.376344086021504</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!D5</f>
         <v>15.8730158730159</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!E5</f>
         <v>0.17241379310344801</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!F5</f>
         <v>25.639204545454501</v>
       </c>
@@ -1969,19 +1969,19 @@
         <f>[2]monthly_env_pct_firms_sp!B5</f>
         <v>2012</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="16">
         <f>[2]monthly_env_pct_firms_sp!C5</f>
         <v>95.91</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="16">
         <f>[2]monthly_env_pct_firms_sp!D5</f>
         <v>74.34</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="16">
         <f>[2]monthly_env_pct_firms_sp!E5</f>
         <v>2.59</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="16">
         <f>[2]monthly_env_pct_firms_sp!F5</f>
         <v>51.85</v>
       </c>
@@ -1991,19 +1991,19 @@
         <f>[1]monthly_ghg_pct_firms_sp!B6</f>
         <v>2013</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!C6</f>
         <v>59.041394335512003</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!D6</f>
         <v>15.384615384615399</v>
       </c>
-      <c r="D9" s="5" t="str">
+      <c r="D9" s="16" t="str">
         <f>[1]monthly_ghg_pct_firms_sp!E6</f>
         <v>NA</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!F6</f>
         <v>23.005032350826699</v>
       </c>
@@ -2011,19 +2011,19 @@
         <f>[2]monthly_env_pct_firms_sp!B6</f>
         <v>2013</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="16">
         <f>[2]monthly_env_pct_firms_sp!C6</f>
         <v>97.17</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="16">
         <f>[2]monthly_env_pct_firms_sp!D6</f>
         <v>73.739999999999995</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="16">
         <f>[2]monthly_env_pct_firms_sp!E6</f>
         <v>3.57</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="16">
         <f>[2]monthly_env_pct_firms_sp!F6</f>
         <v>51.83</v>
       </c>
@@ -2033,19 +2033,19 @@
         <f>[1]monthly_ghg_pct_firms_sp!B7</f>
         <v>2014</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!C7</f>
         <v>58.651685393258397</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!D7</f>
         <v>16.6233766233766</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!E7</f>
         <v>0.51107325383304902</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!F7</f>
         <v>23.4181818181818</v>
       </c>
@@ -2053,19 +2053,19 @@
         <f>[2]monthly_env_pct_firms_sp!B7</f>
         <v>2014</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="16">
         <f>[2]monthly_env_pct_firms_sp!C7</f>
         <v>96.63</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="16">
         <f>[2]monthly_env_pct_firms_sp!D7</f>
         <v>73.25</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="16">
         <f>[2]monthly_env_pct_firms_sp!E7</f>
         <v>8.18</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="16">
         <f>[2]monthly_env_pct_firms_sp!F7</f>
         <v>53.82</v>
       </c>
@@ -2075,19 +2075,19 @@
         <f>[1]monthly_ghg_pct_firms_sp!B8</f>
         <v>2015</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!C8</f>
         <v>58.295964125560502</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!D8</f>
         <v>19.53125</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!E8</f>
         <v>3.3444816053511701</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!F8</f>
         <v>25.0361794500724</v>
       </c>
@@ -2095,19 +2095,19 @@
         <f>[2]monthly_env_pct_firms_sp!B8</f>
         <v>2015</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="16">
         <f>[2]monthly_env_pct_firms_sp!C8</f>
         <v>95.29</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="16">
         <f>[2]monthly_env_pct_firms_sp!D8</f>
         <v>94.01</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="16">
         <f>[2]monthly_env_pct_firms_sp!E8</f>
         <v>51</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="16">
         <f>[2]monthly_env_pct_firms_sp!F8</f>
         <v>76.12</v>
       </c>
@@ -2117,19 +2117,19 @@
         <f>[1]monthly_ghg_pct_firms_sp!B9</f>
         <v>2016</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!C9</f>
         <v>61.8510158013544</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!D9</f>
         <v>20</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!E9</f>
         <v>4.4554455445544496</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!F9</f>
         <v>26.739130434782599</v>
       </c>
@@ -2137,19 +2137,19 @@
         <f>[2]monthly_env_pct_firms_sp!B9</f>
         <v>2016</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="16">
         <f>[2]monthly_env_pct_firms_sp!C9</f>
         <v>95.94</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="16">
         <f>[2]monthly_env_pct_firms_sp!D9</f>
         <v>95.26</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="16">
         <f>[2]monthly_env_pct_firms_sp!E9</f>
         <v>82.18</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="16">
         <f>[2]monthly_env_pct_firms_sp!F9</f>
         <v>89.78</v>
       </c>
@@ -2159,19 +2159,19 @@
         <f>[1]monthly_ghg_pct_firms_sp!B10</f>
         <v>2017</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!C10</f>
         <v>60.36866359447</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!D10</f>
         <v>19.312169312169299</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!E10</f>
         <v>5.0761421319797</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!F10</f>
         <v>26.350851221317502</v>
       </c>
@@ -2179,19 +2179,19 @@
         <f>[2]monthly_env_pct_firms_sp!B10</f>
         <v>2017</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="16">
         <f>[2]monthly_env_pct_firms_sp!C10</f>
         <v>96.54</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="16">
         <f>[2]monthly_env_pct_firms_sp!D10</f>
         <v>93.39</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="16">
         <f>[2]monthly_env_pct_firms_sp!E10</f>
         <v>87.14</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="16">
         <f>[2]monthly_env_pct_firms_sp!F10</f>
         <v>91.64</v>
       </c>
@@ -2201,19 +2201,19 @@
         <f>[1]monthly_ghg_pct_firms_sp!B11&amp;"*"</f>
         <v>2018*</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!C11</f>
         <v>56.367924528301899</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!D11</f>
         <v>16.480446927374299</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!E11</f>
         <v>5.3956834532374103</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="16">
         <f>[1]monthly_ghg_pct_firms_sp!F11</f>
         <v>24.654377880184299</v>
       </c>
@@ -2221,19 +2221,19 @@
         <f>[2]monthly_env_pct_firms_sp!B11&amp;"*"</f>
         <v>2018*</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="16">
         <f>[2]monthly_env_pct_firms_sp!C11</f>
         <v>92.92</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="16">
         <f>[2]monthly_env_pct_firms_sp!D11</f>
         <v>90.22</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="16">
         <f>[2]monthly_env_pct_firms_sp!E11</f>
         <v>86.87</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="16">
         <f>[2]monthly_env_pct_firms_sp!F11</f>
         <v>89.71</v>
       </c>
@@ -2301,7 +2301,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2317,7 +2317,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2367,23 +2367,23 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!B2</f>
         <v>2009</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!C2</f>
         <v>76</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!D2</f>
         <v>76</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!E2</f>
         <v>152</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!F2</f>
         <v>1090</v>
       </c>
@@ -2409,23 +2409,23 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!B3</f>
         <v>2010</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!C3</f>
         <v>87</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!D3</f>
         <v>87</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!E3</f>
         <v>172</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!F3</f>
         <v>1043</v>
       </c>
@@ -2451,23 +2451,23 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!B4</f>
         <v>2011</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!C4</f>
         <v>94</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!D4</f>
         <v>94</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!E4</f>
         <v>187</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!F4</f>
         <v>1002</v>
       </c>
@@ -2493,23 +2493,23 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!B5</f>
         <v>2012</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!C5</f>
         <v>97</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!D5</f>
         <v>97</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!E5</f>
         <v>194</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!F5</f>
         <v>980</v>
       </c>
@@ -2535,23 +2535,23 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+      <c r="A9" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!B6</f>
         <v>2013</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!C6</f>
         <v>97</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!D6</f>
         <v>97</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!E6</f>
         <v>192</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!F6</f>
         <v>968</v>
       </c>
@@ -2577,23 +2577,23 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!B7</f>
         <v>2014</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!C7</f>
         <v>97</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!D7</f>
         <v>97</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!E7</f>
         <v>192</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!F7</f>
         <v>951</v>
       </c>
@@ -2619,23 +2619,23 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!B8</f>
         <v>2015</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!C8</f>
         <v>100</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!D8</f>
         <v>100</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!E8</f>
         <v>198</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!F8</f>
         <v>926</v>
       </c>
@@ -2661,23 +2661,23 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!B9</f>
         <v>2016</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!C9</f>
         <v>99</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!D9</f>
         <v>99</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!E9</f>
         <v>197</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!F9</f>
         <v>922</v>
       </c>
@@ -2703,23 +2703,23 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+      <c r="A13" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!B10</f>
         <v>2017</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!C10</f>
         <v>100</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!D10</f>
         <v>100</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!E10</f>
         <v>198</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!F10</f>
         <v>904</v>
       </c>
@@ -2745,23 +2745,23 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="str">
+      <c r="A14" s="14" t="str">
         <f>[3]ghg_df_monthly_avg_esg_firms!B11&amp;"*"</f>
         <v>2018*</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!C11</f>
         <v>101</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!D11</f>
         <v>101</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!E11</f>
         <v>200</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="14">
         <f>[3]ghg_df_monthly_avg_esg_firms!F11</f>
         <v>886</v>
       </c>
@@ -2848,28 +2848,28 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="G5" sqref="G5:K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="15"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2888,7 +2888,7 @@
         <v>6</v>
       </c>
       <c r="F4" s="4"/>
-      <c r="G4" s="10"/>
+      <c r="G4" s="9"/>
       <c r="H4" s="3" t="str">
         <f>B4</f>
         <v>S&amp;P 500
@@ -2914,82 +2914,82 @@
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <f>B31</f>
         <v>2488</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <f t="shared" ref="C5:E5" si="0">C31</f>
         <v>556</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <f t="shared" si="0"/>
         <v>3071</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="10" t="str">
+      <c r="G5" s="9" t="str">
         <f t="shared" ref="G5:G15" si="1">A5</f>
         <v>Observations</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <f>H31</f>
         <v>3965</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="13">
         <f t="shared" ref="I5:K5" si="2">I31</f>
         <v>2763</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="13">
         <f t="shared" si="2"/>
         <v>1484</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="13">
         <f t="shared" si="2"/>
         <v>7952</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <f>B32</f>
         <v>60.315151515151499</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="12">
         <f t="shared" ref="C6:E6" si="3">C32</f>
         <v>16.097278517660701</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <f t="shared" si="3"/>
         <v>1.7164179104477599</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <f t="shared" si="3"/>
         <v>24.394312495035301</v>
       </c>
       <c r="F6" s="4"/>
-      <c r="G6" s="10" t="str">
+      <c r="G6" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Percent of Firms</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="12">
         <f>H32</f>
         <v>96.121212121212096</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="12">
         <f t="shared" ref="I6:K6" si="4">I32</f>
         <v>79.994209612044003</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <f t="shared" si="4"/>
         <v>27.686567164179099</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="12">
         <f t="shared" si="4"/>
         <v>63.1662562554611</v>
       </c>
@@ -2998,40 +2998,40 @@
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <f>B18</f>
         <v>931.87630747979995</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <f t="shared" ref="C7:E7" si="5">C18</f>
         <v>1495.4476116113799</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <f t="shared" si="5"/>
         <v>741.99486950552</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <f t="shared" si="5"/>
         <v>1032.5114379935501</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="10" t="str">
+      <c r="G7" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Mean</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="12">
         <f>H18</f>
         <v>63.2848287441156</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="12">
         <f t="shared" ref="I7:K7" si="6">I18</f>
         <v>34.768641437381902</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="12">
         <f t="shared" si="6"/>
         <v>22.4703268716721</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="12">
         <f t="shared" si="6"/>
         <v>46.568886247680901</v>
       </c>
@@ -3040,40 +3040,40 @@
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <f>B19</f>
         <v>2544.69409082312</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="12">
         <f t="shared" ref="C8:E8" si="7">C19</f>
         <v>3732.7309400583699</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <f t="shared" si="7"/>
         <v>1553.8918776590399</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <f t="shared" si="7"/>
         <v>2794.5257340396502</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="10" t="str">
+      <c r="G8" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Standard Deviation</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="12">
         <f>H19</f>
         <v>29.9856532847969</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="12">
         <f t="shared" ref="I8:K8" si="8">I19</f>
         <v>27.2118097159718</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="12">
         <f t="shared" si="8"/>
         <v>16.494949591135601</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="12">
         <f t="shared" si="8"/>
         <v>31.975409599318098</v>
       </c>
@@ -3082,40 +3082,40 @@
       <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <f>B28</f>
         <v>4.15736721766591</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="12">
         <f t="shared" ref="C9:E9" si="9">C28</f>
         <v>3.3762990516466398</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <f t="shared" si="9"/>
         <v>3.1056570586923899</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <f t="shared" si="9"/>
         <v>4.0717614413737504</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="10" t="str">
+      <c r="G9" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Skewness</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="12">
         <f>H28</f>
         <v>-0.60795910836838496</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="12">
         <f t="shared" ref="I9:K9" si="10">I28</f>
         <v>0.91329601622741596</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="12">
         <f t="shared" si="10"/>
         <v>2.1110858866943301</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="12">
         <f t="shared" si="10"/>
         <v>0.27311246077081502</v>
       </c>
@@ -3124,40 +3124,40 @@
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <f>B30</f>
         <v>19.581556834027499</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <f t="shared" ref="C10:E10" si="11">C30</f>
         <v>11.3626744834836</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <f t="shared" si="11"/>
         <v>11.2632953312254</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <f t="shared" si="11"/>
         <v>18.417657514176899</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="10" t="str">
+      <c r="G10" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Kurtosis</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="12">
         <f>H30</f>
         <v>-1.1600736802881899</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="12">
         <f t="shared" ref="I10:K10" si="12">I30</f>
         <v>-0.56472169365624603</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="12">
         <f t="shared" si="12"/>
         <v>4.1742983934120401</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="12">
         <f t="shared" si="12"/>
         <v>-1.5669095192651901</v>
       </c>
@@ -3166,40 +3166,40 @@
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <f>B20</f>
         <v>0</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <f t="shared" ref="C11:E11" si="13">C20</f>
         <v>1.20096747758599</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="10" t="str">
+      <c r="G11" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Min</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="12">
         <f>H20</f>
         <v>8.5116666666666703</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="12">
         <f t="shared" ref="I11:K11" si="14">I20</f>
         <v>8.2899999999999991</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="12">
         <f t="shared" si="14"/>
         <v>8.6999999999999993</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="12">
         <f t="shared" si="14"/>
         <v>8.2899999999999991</v>
       </c>
@@ -3208,40 +3208,40 @@
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <f>B21</f>
         <v>31.141099335263899</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <f t="shared" ref="C12:E12" si="15">C21</f>
         <v>42.223739560114801</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <f t="shared" si="15"/>
         <v>35.559288267851898</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <f t="shared" si="15"/>
         <v>32.535091465766897</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="10" t="str">
+      <c r="G12" s="9" t="str">
         <f t="shared" si="1"/>
         <v>25th Percentile</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="12">
         <f>H21</f>
         <v>36.327500000000001</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="12">
         <f t="shared" ref="I12:K12" si="16">I21</f>
         <v>12.24</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="12">
         <f t="shared" si="16"/>
         <v>12.77</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="12">
         <f t="shared" si="16"/>
         <v>13.7433333333333</v>
       </c>
@@ -3250,40 +3250,40 @@
       <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <f>B22</f>
         <v>79.929810499241697</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <f t="shared" ref="C13:E13" si="17">C22</f>
         <v>139.77070097806401</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <f t="shared" si="17"/>
         <v>72.166716692074104</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="12">
         <f t="shared" si="17"/>
         <v>87.301374143602203</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="10" t="str">
+      <c r="G13" s="9" t="str">
         <f t="shared" si="1"/>
         <v>50th Percentile</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="12">
         <f>H22</f>
         <v>75.282499999999999</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="12">
         <f t="shared" ref="I13:K13" si="18">I22</f>
         <v>22.797499999999999</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="12">
         <f t="shared" si="18"/>
         <v>13.797083333333299</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="12">
         <f t="shared" si="18"/>
         <v>38.142499999999998</v>
       </c>
@@ -3292,40 +3292,40 @@
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <f>B23</f>
         <v>390.04144591597702</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <f t="shared" ref="C14:E14" si="19">C23</f>
         <v>582.98654473965701</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <f t="shared" si="19"/>
         <v>546.48777400665199</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <f t="shared" si="19"/>
         <v>453.03858530516197</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="10" t="str">
+      <c r="G14" s="9" t="str">
         <f t="shared" si="1"/>
         <v>75th Percentile</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="12">
         <f>H23</f>
         <v>90.163333333333298</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="12">
         <f t="shared" ref="I14:K14" si="20">I23</f>
         <v>53.0966666666667</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="12">
         <f t="shared" si="20"/>
         <v>26.065000000000001</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="12">
         <f t="shared" si="20"/>
         <v>81.084999999999994</v>
       </c>
@@ -3334,40 +3334,40 @@
       <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="12">
         <f>B24</f>
         <v>21247.405594709799</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <f t="shared" ref="C15:E15" si="21">C24</f>
         <v>21247.405594709799</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <f t="shared" si="21"/>
         <v>9471.0680975924406</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <f t="shared" si="21"/>
         <v>21247.405594709799</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="10" t="str">
+      <c r="G15" s="9" t="str">
         <f t="shared" si="1"/>
         <v>Max</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="12">
         <f>H24</f>
         <v>95.599166666666704</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="12">
         <f t="shared" ref="I15:K15" si="22">I24</f>
         <v>95.32</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="12">
         <f t="shared" si="22"/>
         <v>94.271666666666704</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="12">
         <f t="shared" si="22"/>
         <v>95.599166666666704</v>
       </c>
@@ -3379,7 +3379,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="10"/>
+      <c r="G16" s="9"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -3421,7 +3421,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="str">
+      <c r="A18" s="11" t="str">
         <f>[5]monthly_summary_stats!A2</f>
         <v>Mean</v>
       </c>
@@ -3441,7 +3441,7 @@
         <f>[5]monthly_summary_stats!I2</f>
         <v>1032.5114379935501</v>
       </c>
-      <c r="G18" s="9" t="str">
+      <c r="G18" s="8" t="str">
         <f t="shared" ref="G18:G32" si="23">A18</f>
         <v>Mean</v>
       </c>
@@ -3463,7 +3463,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="str">
+      <c r="A19" s="11" t="str">
         <f>[5]monthly_summary_stats!A3</f>
         <v>Std.Dev</v>
       </c>
@@ -3483,7 +3483,7 @@
         <f>[5]monthly_summary_stats!I3</f>
         <v>2794.5257340396502</v>
       </c>
-      <c r="G19" s="9" t="str">
+      <c r="G19" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Std.Dev</v>
       </c>
@@ -3505,7 +3505,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="str">
+      <c r="A20" s="11" t="str">
         <f>[5]monthly_summary_stats!A4</f>
         <v>Min</v>
       </c>
@@ -3525,7 +3525,7 @@
         <f>[5]monthly_summary_stats!I4</f>
         <v>0</v>
       </c>
-      <c r="G20" s="9" t="str">
+      <c r="G20" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Min</v>
       </c>
@@ -3547,7 +3547,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="str">
+      <c r="A21" s="11" t="str">
         <f>[5]monthly_summary_stats!A5</f>
         <v>Q1</v>
       </c>
@@ -3567,7 +3567,7 @@
         <f>[5]monthly_summary_stats!I5</f>
         <v>32.535091465766897</v>
       </c>
-      <c r="G21" s="9" t="str">
+      <c r="G21" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Q1</v>
       </c>
@@ -3589,7 +3589,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="str">
+      <c r="A22" s="11" t="str">
         <f>[5]monthly_summary_stats!A6</f>
         <v>Median</v>
       </c>
@@ -3609,7 +3609,7 @@
         <f>[5]monthly_summary_stats!I6</f>
         <v>87.301374143602203</v>
       </c>
-      <c r="G22" s="9" t="str">
+      <c r="G22" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Median</v>
       </c>
@@ -3631,7 +3631,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="str">
+      <c r="A23" s="11" t="str">
         <f>[5]monthly_summary_stats!A7</f>
         <v>Q3</v>
       </c>
@@ -3651,7 +3651,7 @@
         <f>[5]monthly_summary_stats!I7</f>
         <v>453.03858530516197</v>
       </c>
-      <c r="G23" s="9" t="str">
+      <c r="G23" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Q3</v>
       </c>
@@ -3673,7 +3673,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="str">
+      <c r="A24" s="11" t="str">
         <f>[5]monthly_summary_stats!A8</f>
         <v>Max</v>
       </c>
@@ -3693,7 +3693,7 @@
         <f>[5]monthly_summary_stats!I8</f>
         <v>21247.405594709799</v>
       </c>
-      <c r="G24" s="9" t="str">
+      <c r="G24" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Max</v>
       </c>
@@ -3715,7 +3715,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="str">
+      <c r="A25" s="11" t="str">
         <f>[5]monthly_summary_stats!A9</f>
         <v>MAD</v>
       </c>
@@ -3735,7 +3735,7 @@
         <f>[5]monthly_summary_stats!I9</f>
         <v>105.033897748255</v>
       </c>
-      <c r="G25" s="9" t="str">
+      <c r="G25" s="8" t="str">
         <f t="shared" si="23"/>
         <v>MAD</v>
       </c>
@@ -3757,7 +3757,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="str">
+      <c r="A26" s="11" t="str">
         <f>[5]monthly_summary_stats!A10</f>
         <v>IQR</v>
       </c>
@@ -3777,7 +3777,7 @@
         <f>[5]monthly_summary_stats!I10</f>
         <v>420.41075997070698</v>
       </c>
-      <c r="G26" s="9" t="str">
+      <c r="G26" s="8" t="str">
         <f t="shared" si="23"/>
         <v>IQR</v>
       </c>
@@ -3799,7 +3799,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="str">
+      <c r="A27" s="11" t="str">
         <f>[5]monthly_summary_stats!A11</f>
         <v>CV</v>
       </c>
@@ -3819,7 +3819,7 @@
         <f>[5]monthly_summary_stats!I11</f>
         <v>2.7065324714176402</v>
       </c>
-      <c r="G27" s="9" t="str">
+      <c r="G27" s="8" t="str">
         <f t="shared" si="23"/>
         <v>CV</v>
       </c>
@@ -3841,7 +3841,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="str">
+      <c r="A28" s="11" t="str">
         <f>[5]monthly_summary_stats!A12</f>
         <v>Skewness</v>
       </c>
@@ -3861,7 +3861,7 @@
         <f>[5]monthly_summary_stats!I12</f>
         <v>4.0717614413737504</v>
       </c>
-      <c r="G28" s="9" t="str">
+      <c r="G28" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Skewness</v>
       </c>
@@ -3883,7 +3883,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="str">
+      <c r="A29" s="11" t="str">
         <f>[5]monthly_summary_stats!A13</f>
         <v>SE.Skewness</v>
       </c>
@@ -3903,7 +3903,7 @@
         <f>[5]monthly_summary_stats!I13</f>
         <v>4.4179799406568902E-2</v>
       </c>
-      <c r="G29" s="9" t="str">
+      <c r="G29" s="8" t="str">
         <f t="shared" si="23"/>
         <v>SE.Skewness</v>
       </c>
@@ -3925,7 +3925,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="str">
+      <c r="A30" s="11" t="str">
         <f>[5]monthly_summary_stats!A14</f>
         <v>Kurtosis</v>
       </c>
@@ -3945,7 +3945,7 @@
         <f>[5]monthly_summary_stats!I14</f>
         <v>18.417657514176899</v>
       </c>
-      <c r="G30" s="9" t="str">
+      <c r="G30" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Kurtosis</v>
       </c>
@@ -3967,50 +3967,50 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="str">
+      <c r="A31" s="11" t="str">
         <f>[5]monthly_summary_stats!A15</f>
         <v>N.Valid</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <f>[5]monthly_summary_stats!C15</f>
         <v>2488</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <f>[5]monthly_summary_stats!E15</f>
         <v>556</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <f>[5]monthly_summary_stats!G15</f>
         <v>92</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <f>[5]monthly_summary_stats!I15</f>
         <v>3071</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="11" t="str">
+      <c r="F31" s="7"/>
+      <c r="G31" s="10" t="str">
         <f t="shared" si="23"/>
         <v>N.Valid</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="6">
         <f>[5]monthly_summary_stats!B15</f>
         <v>3965</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="6">
         <f>[5]monthly_summary_stats!D15</f>
         <v>2763</v>
       </c>
-      <c r="J31" s="7">
+      <c r="J31" s="6">
         <f>[5]monthly_summary_stats!F15</f>
         <v>1484</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="6">
         <f>[5]monthly_summary_stats!H15</f>
         <v>7952</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="str">
+      <c r="A32" s="11" t="str">
         <f>[5]monthly_summary_stats!A16</f>
         <v>Pct.Valid</v>
       </c>
@@ -4030,7 +4030,7 @@
         <f>[5]monthly_summary_stats!I16</f>
         <v>24.394312495035301</v>
       </c>
-      <c r="G32" s="9" t="str">
+      <c r="G32" s="8" t="str">
         <f t="shared" si="23"/>
         <v>Pct.Valid</v>
       </c>
